--- a/public/nom_de_fichier.xlsx
+++ b/public/nom_de_fichier.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
-  <si>
-    <t>MPPA PME</t>
-  </si>
-  <si>
-    <t>PME</t>
-  </si>
-  <si>
-    <t>% PME</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>MPPA</t>
+  </si>
+  <si>
+    <t>MABC</t>
+  </si>
+  <si>
+    <t>TOTAUX</t>
   </si>
   <si>
     <t>VALEUR</t>
@@ -32,58 +32,31 @@
     <t>NOMBRE</t>
   </si>
   <si>
-    <t>TOP PME VALEUR</t>
-  </si>
-  <si>
-    <t>DEPARTEMENT</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>NB MPPA PME</t>
-  </si>
-  <si>
-    <t>% MPPA</t>
-  </si>
-  <si>
-    <t>Janvier</t>
-  </si>
-  <si>
-    <t>Février</t>
-  </si>
-  <si>
-    <t>Mars</t>
-  </si>
-  <si>
-    <t>Avril</t>
-  </si>
-  <si>
-    <t>Mai</t>
-  </si>
-  <si>
-    <t>Juin</t>
-  </si>
-  <si>
-    <t>Juillet</t>
-  </si>
-  <si>
-    <t>Août</t>
-  </si>
-  <si>
-    <t>Septembre</t>
-  </si>
-  <si>
-    <t>Octobre</t>
-  </si>
-  <si>
-    <t>Novembre</t>
-  </si>
-  <si>
-    <t>Décembre</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>MOYENNE</t>
+  </si>
+  <si>
+    <t>% VOLUME</t>
+  </si>
+  <si>
+    <t>Montant des MPPA</t>
+  </si>
+  <si>
+    <t>X &lt;= 200</t>
+  </si>
+  <si>
+    <t>200 &lt; X &lt;=1500</t>
+  </si>
+  <si>
+    <t>1500 &lt; X &lt;=4000</t>
+  </si>
+  <si>
+    <t>X &gt; 4000</t>
+  </si>
+  <si>
+    <t>Montant des MABC</t>
+  </si>
+  <si>
+    <t>Montant des MABC + MPPA</t>
   </si>
 </sst>
 </file>
@@ -157,7 +130,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VALEUR</a:t>
+              <a:t>Montant des MPPA</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -169,20 +142,18 @@
     <c:view3D/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$J4</c:f>
+              <c:f>Worksheet!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>Montant des MPPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -190,203 +161,49 @@
           <c:spPr>
             <a:ln/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$J$4:$N$4</c:f>
+              <c:f>Worksheet!$G$3:$J$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>X &lt;= 200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>200 &lt; X &lt;=1500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>00</c:v>
+                  <c:v>X &gt; 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$J$3</c:f>
+              <c:f>Worksheet!$G$4:$J$4</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>46633</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$K$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$K$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1468</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>56</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$L$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>458</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$M$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>316</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$N$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>238</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:axId val="110438656"/>
-        <c:axId val="110444544"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="110438656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:crossAx val="110444544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="110444544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:crossAx val="110438656"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -445,7 +262,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VOLUME</a:t>
+              <a:t>Montant des MABC</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -457,20 +274,18 @@
     <c:view3D/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$S4</c:f>
+              <c:f>Worksheet!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>Montant des MABC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -478,203 +293,49 @@
           <c:spPr>
             <a:ln/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$S$4:$W$4</c:f>
+              <c:f>Worksheet!$L$3:$O$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>X &lt;= 200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>200 &lt; X &lt;=1500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>00</c:v>
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>X &gt; 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$S$3</c:f>
+              <c:f>Worksheet!$L$4:$O$4</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$T$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$T$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$U$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$U$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$V$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$V$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$W$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>56</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$W$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:axId val="110438656"/>
-        <c:axId val="110444544"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="110438656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:crossAx val="110444544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="110444544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:crossAx val="110438656"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -733,7 +394,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Activité appro PME</a:t>
+              <a:t>Montant des MABC + MPPA</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -745,20 +406,18 @@
     <c:view3D/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$B$23</c:f>
+              <c:f>Worksheet!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NB MPPA PME</c:v>
+                  <c:v>Montant des MABC + MPPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -766,137 +425,49 @@
           <c:spPr>
             <a:ln/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$C$22:$N$22</c:f>
+              <c:f>Worksheet!$Q$3:$T$3</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Janvier</c:v>
+                  <c:v>X &lt;= 200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Février</c:v>
+                  <c:v>200 &lt; X &lt;=1500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Mars</c:v>
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Avril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mai</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Juin</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Juillet</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Août</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octobre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Novembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Décembre</c:v>
+                  <c:v>X &gt; 4000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$C$23:$N$23</c:f>
+              <c:f>Worksheet!$Q$4:$T$4</c:f>
               <c:numCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:gapWidth val="150"/>
-        <c:axId val="110438656"/>
-        <c:axId val="110444544"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="110438656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:crossAx val="110444544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="110444544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:crossAx val="110438656"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -935,15 +506,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -967,15 +538,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -999,15 +570,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1322,7 +893,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,246 +901,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:20">
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8845.0</v>
+      </c>
+      <c r="C3">
+        <v>210858.0</v>
+      </c>
+      <c r="D3">
+        <v>219703.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>13</v>
+      </c>
+      <c r="R4">
+        <v>19</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>421.19</v>
+      </c>
+      <c r="C5">
+        <v>14057.2</v>
+      </c>
+      <c r="D5">
+        <v>14478.39</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>49213.47</v>
-      </c>
-      <c r="E3">
-        <v>96.31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>46633.0</v>
-      </c>
-      <c r="K3">
-        <v>1468.0</v>
-      </c>
-      <c r="L3">
-        <v>458.0</v>
-      </c>
-      <c r="M3">
-        <v>316.0</v>
-      </c>
-      <c r="N3">
-        <v>238.0</v>
-      </c>
-      <c r="R3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3">
-        <v>30</v>
-      </c>
-      <c r="T3">
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="U3">
-        <v>3</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
+      <c r="B6">
+        <v>4.03</v>
+      </c>
+      <c r="C6">
+        <v>95.96</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>42</v>
-      </c>
-      <c r="E4">
-        <v>80.77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>95</v>
-      </c>
-      <c r="K4">
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>69</v>
-      </c>
-      <c r="N4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4">
-        <v>95</v>
-      </c>
-      <c r="T4">
-        <v>16</v>
-      </c>
-      <c r="U4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4">
-        <v>69</v>
-      </c>
-      <c r="W4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23">
-        <v>13</v>
-      </c>
-      <c r="M23">
-        <v>13</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="O23">
-        <f>SUM(C23:N23)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>86</v>
-      </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="I24">
-        <v>100</v>
-      </c>
-      <c r="J24">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>50</v>
-      </c>
-      <c r="L24">
-        <v>54</v>
-      </c>
-      <c r="M24">
-        <v>54</v>
-      </c>
-      <c r="N24">
-        <v>100</v>
-      </c>
-      <c r="O24">
-        <f>SUM(C24:N24) / 12</f>
-        <v>82.833333333333</v>
+    <row r="7" spans="1:20">
+      <c r="B7">
+        <v>56.76</v>
+      </c>
+      <c r="C7">
+        <v>40.54</v>
       </c>
     </row>
   </sheetData>

--- a/public/nom_de_fichier.xlsx
+++ b/public/nom_de_fichier.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
-  <si>
-    <t>MPPA</t>
-  </si>
-  <si>
-    <t>MABC</t>
-  </si>
-  <si>
-    <t>TOTAUX</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t>MPPA PME</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>% PME</t>
   </si>
   <si>
     <t>VALEUR</t>
@@ -32,31 +32,58 @@
     <t>NOMBRE</t>
   </si>
   <si>
-    <t>MOYENNE</t>
-  </si>
-  <si>
-    <t>% VOLUME</t>
-  </si>
-  <si>
-    <t>Montant des MPPA</t>
-  </si>
-  <si>
-    <t>X &lt;= 200</t>
-  </si>
-  <si>
-    <t>200 &lt; X &lt;=1500</t>
-  </si>
-  <si>
-    <t>1500 &lt; X &lt;=4000</t>
-  </si>
-  <si>
-    <t>X &gt; 4000</t>
-  </si>
-  <si>
-    <t>Montant des MABC</t>
-  </si>
-  <si>
-    <t>Montant des MABC + MPPA</t>
+    <t>TOP PME VALEUR</t>
+  </si>
+  <si>
+    <t>DEPARTEMENT</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>NB MPPA PME</t>
+  </si>
+  <si>
+    <t>% MPPA</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Avril</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Juin</t>
+  </si>
+  <si>
+    <t>Juillet</t>
+  </si>
+  <si>
+    <t>Août</t>
+  </si>
+  <si>
+    <t>Septembre</t>
+  </si>
+  <si>
+    <t>Octobre</t>
+  </si>
+  <si>
+    <t>Novembre</t>
+  </si>
+  <si>
+    <t>Décembre</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -130,7 +157,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Montant des MPPA</a:t>
+              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VALEUR</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -142,18 +169,20 @@
     <c:view3D/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$H$2</c:f>
+              <c:f>Worksheet!$J4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Montant des MPPA</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -161,49 +190,203 @@
           <c:spPr>
             <a:ln/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$G$3:$J$3</c:f>
+              <c:f>Worksheet!$J$4:$N$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>X &lt;= 200</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200 &lt; X &lt;=1500</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>X &gt; 4000</c:v>
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$G$4:$J$4</c:f>
+              <c:f>Worksheet!$J$3</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>46633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$K$3</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$L$3</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$3</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$N$3</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -262,7 +445,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Montant des MABC</a:t>
+              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VOLUME</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -274,18 +457,20 @@
     <c:view3D/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$M$2</c:f>
+              <c:f>Worksheet!$S4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Montant des MABC</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -293,49 +478,203 @@
           <c:spPr>
             <a:ln/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$L$3:$O$3</c:f>
+              <c:f>Worksheet!$S$4:$W$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>X &lt;= 200</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200 &lt; X &lt;=1500</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                  <c:v>00</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>X &gt; 4000</c:v>
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$L$4:$O$4</c:f>
+              <c:f>Worksheet!$S$3</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$T$3</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$U$3</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$V$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$V$3</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$W$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$W$3</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -394,7 +733,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Montant des MABC + MPPA</a:t>
+              <a:t>Activité appro PME</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -406,18 +745,20 @@
     <c:view3D/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$R$2</c:f>
+              <c:f>Worksheet!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Montant des MABC + MPPA</c:v>
+                  <c:v>NB MPPA PME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -425,49 +766,137 @@
           <c:spPr>
             <a:ln/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$Q$3:$T$3</c:f>
+              <c:f>Worksheet!$C$22:$N$22</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>X &lt;= 200</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200 &lt; X &lt;=1500</c:v>
+                  <c:v>Février</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                  <c:v>Mars</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>X &gt; 4000</c:v>
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Juin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juillet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Août</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octobre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$Q$4:$T$4</c:f>
+              <c:f>Worksheet!$C$23:$N$23</c:f>
               <c:numCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -506,15 +935,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -538,15 +967,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -570,15 +999,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -893,7 +1322,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,157 +1330,246 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>49213.47</v>
+      </c>
+      <c r="E3">
+        <v>96.31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>46633.0</v>
+      </c>
+      <c r="K3">
+        <v>1468.0</v>
+      </c>
+      <c r="L3">
+        <v>458.0</v>
+      </c>
+      <c r="M3">
+        <v>316.0</v>
+      </c>
+      <c r="N3">
+        <v>238.0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>30</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>80.77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>95</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <v>69</v>
+      </c>
+      <c r="N4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>95</v>
+      </c>
+      <c r="T4">
+        <v>16</v>
+      </c>
+      <c r="U4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4">
+        <v>69</v>
+      </c>
+      <c r="W4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
         <v>12</v>
       </c>
-      <c r="R2" t="s">
+      <c r="F22" t="s">
         <v>13</v>
       </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
+    <row r="23" spans="1:23">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>8845.0</v>
-      </c>
-      <c r="C3">
-        <v>210858.0</v>
-      </c>
-      <c r="D3">
-        <v>219703.0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>13</v>
+      </c>
+      <c r="M23">
+        <v>13</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <f>SUM(C23:N23)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>36</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>13</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="Q4">
-        <v>13</v>
-      </c>
-      <c r="R4">
-        <v>19</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>421.19</v>
-      </c>
-      <c r="C5">
-        <v>14057.2</v>
-      </c>
-      <c r="D5">
-        <v>14478.39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>4.03</v>
-      </c>
-      <c r="C6">
-        <v>95.96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="B7">
-        <v>56.76</v>
-      </c>
-      <c r="C7">
-        <v>40.54</v>
+      <c r="C24">
+        <v>86</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>50</v>
+      </c>
+      <c r="L24">
+        <v>54</v>
+      </c>
+      <c r="M24">
+        <v>54</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="O24">
+        <f>SUM(C24:N24) / 12</f>
+        <v>82.833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/public/nom_de_fichier.xlsx
+++ b/public/nom_de_fichier.xlsx
@@ -1361,19 +1361,19 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>46633.0</v>
+        <v>46633</v>
       </c>
       <c r="K3">
-        <v>1468.0</v>
+        <v>1468</v>
       </c>
       <c r="L3">
-        <v>458.0</v>
+        <v>458</v>
       </c>
       <c r="M3">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="N3">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="R3" t="s">
         <v>3</v>

--- a/public/nom_de_fichier.xlsx
+++ b/public/nom_de_fichier.xlsx
@@ -15,36 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
-  <si>
-    <t>MPPA PME</t>
-  </si>
-  <si>
-    <t>PME</t>
-  </si>
-  <si>
-    <t>% PME</t>
-  </si>
-  <si>
-    <t>VALEUR</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>TOP PME VALEUR</t>
-  </si>
-  <si>
-    <t>DEPARTEMENT</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>NB MPPA PME</t>
-  </si>
-  <si>
-    <t>% MPPA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>MPPA</t>
+  </si>
+  <si>
+    <t>MABC</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Valeur (HT)</t>
   </si>
   <si>
     <t>Janvier</t>
@@ -81,9 +66,6 @@
   </si>
   <si>
     <t>Décembre</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -157,7 +139,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VALEUR</a:t>
+              <a:t>Activité appro en volume</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -178,11 +160,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$J4</c:f>
+              <c:f>Worksheet!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>MPPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -193,34 +175,88 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$J$4:$N$4</c:f>
+              <c:f>Worksheet!$E$1:$P$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>Janvier</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>Février</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>Mars</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>Avril</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>00</c:v>
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Juin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juillet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Août</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octobre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$J$3</c:f>
+              <c:f>Worksheet!$E$2:$P$2</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>46633</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -231,11 +267,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$K$4</c:f>
+              <c:f>Worksheet!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>MABC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -246,101 +282,44 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$K$3</c:f>
+              <c:f>Worksheet!$E$3:$P$3</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1468</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$L$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>56</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$L$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>458</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$M$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>316</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$N$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$N$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>238</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,7 +424,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VOLUME</a:t>
+              <a:t>Activité appro en valeur (HT)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -466,11 +445,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$S4</c:f>
+              <c:f>Worksheet!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>MPPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -481,34 +460,88 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$S$4:$W$4</c:f>
+              <c:f>Worksheet!$E$1:$P$1</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>Janvier</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>Février</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>00</c:v>
+                  <c:v>Mars</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>Avril</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Juin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juillet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Août</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octobre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$S$3</c:f>
+              <c:f>Worksheet!$E$22:$P$22</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24268.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1971.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2573</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,11 +552,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$T$4</c:f>
+              <c:f>Worksheet!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>MABC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -534,323 +567,44 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$T$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$U$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$U$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$V$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$V$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$W$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>56</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$W$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="150"/>
-        <c:axId val="110438656"/>
-        <c:axId val="110444544"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="110438656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:crossAx val="110444544"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="110444544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:crossAx val="110438656"/>
-        <c:crosses val="autoZero"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:ln/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln/>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Activité appro PME</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NB MPPA PME</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Worksheet!$C$22:$N$22</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Janvier</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Février</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Mars</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Avril</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mai</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Juin</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Juillet</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Août</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Septembre</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Octobre</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Novembre</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Décembre</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$C$23:$N$23</c:f>
+              <c:f>Worksheet!$E$23:$P$23</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>197484</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>4942</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>2068</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>8722</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,15 +689,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -967,15 +721,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -992,38 +746,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr name="Chart 3" id="3075"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1322,254 +1044,388 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15" customWidth="true" style="0"/>
+    <col min="16" max="16" width="15" customWidth="true" style="0"/>
+    <col min="17" max="17" width="15" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:23">
+    <row r="1" spans="1:17">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>9</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(E2:P2)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>5</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(E3:P3)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>16</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f>SUM(E4:P4)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
         <v>5</v>
       </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="C3" t="s">
+    <row r="22" spans="1:17">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>735</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>24268.4</v>
+      </c>
+      <c r="J22">
+        <v>1650</v>
+      </c>
+      <c r="K22">
+        <v>907</v>
+      </c>
+      <c r="L22">
+        <v>1650</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>1971.4</v>
+      </c>
+      <c r="O22">
+        <v>2573</v>
+      </c>
+      <c r="P22">
+        <v>825</v>
+      </c>
+      <c r="Q22">
+        <f>SUM(E22:P22)</f>
+        <v>34579.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>197484</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>4942</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>2068</v>
+      </c>
+      <c r="O23">
+        <v>8722</v>
+      </c>
+      <c r="P23">
+        <v>22</v>
+      </c>
+      <c r="Q23">
+        <f>SUM(E23:P23)</f>
+        <v>213238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>49213.47</v>
-      </c>
-      <c r="E3">
-        <v>96.31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>46633</v>
-      </c>
-      <c r="K3">
-        <v>1468</v>
-      </c>
-      <c r="L3">
-        <v>458</v>
-      </c>
-      <c r="M3">
-        <v>316</v>
-      </c>
-      <c r="N3">
-        <v>238</v>
-      </c>
-      <c r="R3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3">
-        <v>30</v>
-      </c>
-      <c r="T3">
-        <v>6</v>
-      </c>
-      <c r="U3">
-        <v>3</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>42</v>
-      </c>
-      <c r="E4">
-        <v>80.77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4">
-        <v>95</v>
-      </c>
-      <c r="K4">
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>69</v>
-      </c>
-      <c r="N4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4">
-        <v>95</v>
-      </c>
-      <c r="T4">
-        <v>16</v>
-      </c>
-      <c r="U4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4">
-        <v>69</v>
-      </c>
-      <c r="W4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>4</v>
-      </c>
-      <c r="L23">
-        <v>13</v>
-      </c>
-      <c r="M23">
-        <v>13</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="O23">
-        <f>SUM(C23:N23)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>86</v>
-      </c>
-      <c r="D24">
-        <v>100</v>
-      </c>
       <c r="E24">
-        <v>100</v>
+        <v>198219</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>100</v>
+        <v>24268.4</v>
       </c>
       <c r="J24">
-        <v>50</v>
+        <v>1650</v>
       </c>
       <c r="K24">
-        <v>50</v>
+        <v>907</v>
       </c>
       <c r="L24">
-        <v>54</v>
+        <v>6592</v>
       </c>
       <c r="M24">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>100</v>
+        <v>4039.4</v>
       </c>
       <c r="O24">
-        <f>SUM(C24:N24) / 12</f>
-        <v>82.833333333333</v>
+        <v>11295</v>
+      </c>
+      <c r="P24">
+        <v>847</v>
+      </c>
+      <c r="Q24">
+        <f>SUM(E24:P24)</f>
+        <v>247817.8</v>
       </c>
     </row>
   </sheetData>

--- a/public/nom_de_fichier.xlsx
+++ b/public/nom_de_fichier.xlsx
@@ -15,84 +15,213 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
-  <si>
-    <t>Statistic sur les PME (marché MPPA)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+  <si>
+    <t>COMPTE RENDU ANNUEL</t>
+  </si>
+  <si>
+    <t>Activités appro en volume/valeur</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>MPPA</t>
+  </si>
+  <si>
+    <t>MABC</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Avril</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Juin</t>
+  </si>
+  <si>
+    <t>Juillet</t>
+  </si>
+  <si>
+    <t>Août</t>
+  </si>
+  <si>
+    <t>Septembre</t>
+  </si>
+  <si>
+    <t>Octobre</t>
+  </si>
+  <si>
+    <t>Novembre</t>
+  </si>
+  <si>
+    <t>Décembre</t>
+  </si>
+  <si>
+    <t>Valeur (HT)</t>
+  </si>
+  <si>
+    <t>Délai</t>
+  </si>
+  <si>
+    <t>ANT GSBDD</t>
+  </si>
+  <si>
+    <t>BUDGET</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>APPRO</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>PFAF</t>
+  </si>
+  <si>
+    <t>Chorus formul.</t>
+  </si>
+  <si>
+    <t>Délai TOTAL</t>
+  </si>
+  <si>
+    <t>Ant. GSBDD</t>
+  </si>
+  <si>
+    <t>&lt;= 3j / 100.00%</t>
+  </si>
+  <si>
+    <t>&gt; 3j / 0.00%</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>&lt;= 7j / 100.00%</t>
+  </si>
+  <si>
+    <t>&gt; 7j / 0.00%</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>&lt; 7j / 100.00%</t>
+  </si>
+  <si>
+    <t>&lt;= 10j / 100.00%</t>
+  </si>
+  <si>
+    <t>&gt; à 10j / 0.00%</t>
+  </si>
+  <si>
+    <t>&lt;= 14j / 100.00%</t>
+  </si>
+  <si>
+    <t>&gt; à 14j / 0.00%</t>
+  </si>
+  <si>
+    <t>Délai total</t>
+  </si>
+  <si>
+    <t>&lt;= 15j / 100.00%</t>
+  </si>
+  <si>
+    <t>&gt; à 15j / 0.00%</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>MOYENNE</t>
+  </si>
+  <si>
+    <t>% VALEUR</t>
+  </si>
+  <si>
+    <t>% VOLUME</t>
+  </si>
+  <si>
+    <t>TOTAUX</t>
+  </si>
+  <si>
+    <t>X &lt;= 201</t>
+  </si>
+  <si>
+    <t>Montant des MPPA</t>
+  </si>
+  <si>
+    <t>201 &lt; X &lt;=1500</t>
+  </si>
+  <si>
+    <t>1500 &lt; X &lt;=4000</t>
+  </si>
+  <si>
+    <t>X &gt; 4000</t>
+  </si>
+  <si>
+    <t>Montant des MABC</t>
+  </si>
+  <si>
+    <t>Montant des MABC + MPPA</t>
+  </si>
+  <si>
+    <t>MPPA PME</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>% PME</t>
+  </si>
+  <si>
+    <t>DEPARTEMENT</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
   </si>
   <si>
     <t>NB MPPA PME</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>MPPA PME</t>
-  </si>
-  <si>
-    <t>PME</t>
-  </si>
-  <si>
-    <t>VALEUR</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>% PME</t>
+    <t>% MPPA</t>
+  </si>
+  <si>
+    <t>Activités appro délais</t>
+  </si>
+  <si>
+    <t>Activités par type de marché</t>
+  </si>
+  <si>
+    <t>Activités des PME</t>
   </si>
   <si>
     <t>TOP PME VALEUR</t>
   </si>
   <si>
-    <t>DEPARTEMENT</t>
-  </si>
-  <si>
     <t>TOP PME VOLUME</t>
-  </si>
-  <si>
-    <t>VOLUME</t>
-  </si>
-  <si>
-    <t>% MPPA</t>
-  </si>
-  <si>
-    <t>Janvier</t>
-  </si>
-  <si>
-    <t>Février</t>
-  </si>
-  <si>
-    <t>Mars</t>
-  </si>
-  <si>
-    <t>Avril</t>
-  </si>
-  <si>
-    <t>Mai</t>
-  </si>
-  <si>
-    <t>Juin</t>
-  </si>
-  <si>
-    <t>Juillet</t>
-  </si>
-  <si>
-    <t>Août</t>
-  </si>
-  <si>
-    <t>Septembre</t>
-  </si>
-  <si>
-    <t>Octobre</t>
-  </si>
-  <si>
-    <t>Novembre</t>
-  </si>
-  <si>
-    <t>Décembre</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -100,7 +229,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -116,6 +245,15 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
@@ -129,13 +267,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4f81bd"/>
+        <fgColor rgb="FFc0504d"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc0504d"/>
+        <fgColor rgb="FF4f81bd"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -158,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -181,18 +319,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -204,6 +356,826 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Activité appro en volume</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$3:$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Juin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juillet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Août</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octobre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Décembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$4:$N$4</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MABC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$5:$N$5</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Délai Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$109:$D$109</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 15j / 100.00%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; à 15j / 0.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$110:$D$110</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MPPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$C$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MPPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$B$140:$E$140</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201 &lt; X &lt;=1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X &gt; 4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$B$141:$E$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MABC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$H$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MABC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$G$140:$J$140</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201 &lt; X &lt;=1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X &gt; 4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$G$141:$J$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MABC + MPPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$M$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MABC + MPPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$L$140:$M$140</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201 &lt; X &lt;=1500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$L$141:$O$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -250,11 +1222,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$J4</c:f>
+              <c:f>Worksheet!$D$167</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -265,7 +1237,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$G$2</c:f>
+              <c:f>Worksheet!$B$165</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -276,11 +1248,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$J$3</c:f>
+              <c:f>Worksheet!$D$166</c:f>
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>46633</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,11 +1263,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$K$4</c:f>
+              <c:f>Worksheet!$E$167</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -306,11 +1278,11 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$K$3</c:f>
+              <c:f>Worksheet!$E$166</c:f>
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20465</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -321,11 +1293,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$L$4</c:f>
+              <c:f>Worksheet!$F$167</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>00</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -336,11 +1308,11 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$L$3</c:f>
+              <c:f>Worksheet!$F$166</c:f>
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2295</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -351,11 +1323,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$M$4</c:f>
+              <c:f>Worksheet!$G$167</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -366,11 +1338,11 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$M$3</c:f>
+              <c:f>Worksheet!$G$166</c:f>
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1471</c:v>
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -381,11 +1353,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$N$4</c:f>
+              <c:f>Worksheet!$H$167</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -396,11 +1368,519 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$N$3</c:f>
+              <c:f>Worksheet!$H$166</c:f>
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VOLUME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$K$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$I$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP PME VOLUME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$K$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$L$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$M$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$N$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$N$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$O$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$O$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Activité appro PME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$186</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NB MPPA PME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$185:$N$185</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$186:$N$186</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,7 +1988,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VOLUME</a:t>
+              <a:t>Activité appro en valeur (HT)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -531,11 +2011,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$S4</c:f>
+              <c:f>Worksheet!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>MPPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -546,34 +2026,88 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$S$4:$W$4</c:f>
+              <c:f>Worksheet!$C$3:$N$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>95</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>Février</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>00</c:v>
+                  <c:v>Mars</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>Avril</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Juin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juillet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Août</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octobre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$S$3</c:f>
+              <c:f>Worksheet!$C$22:$N$22</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,11 +2118,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$T$4</c:f>
+              <c:f>Worksheet!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>MABC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -599,101 +2133,44 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$T$3</c:f>
+              <c:f>Worksheet!$C$23:$N$23</c:f>
               <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$U$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$U$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$V$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$V$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$W$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Worksheet!$W$3</c:f>
-              <c:numCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,7 +2278,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Activité appro PME</a:t>
+              <a:t>Délai d'activié annuelle</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -818,17 +2295,17 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$B$23</c:f>
+              <c:f>Worksheet!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NB MPPA PME</c:v>
+                  <c:v>Transmission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -839,7 +2316,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$C$22:$N$22</c:f>
+              <c:f>Worksheet!$C$42:$N$42</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -883,44 +2360,107 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$C$23:$N$23</c:f>
+              <c:f>Worksheet!$C$45:$N$45</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Notification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$48:$N$48</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,19 +2544,1891 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ANT GSBDD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ant. GSBDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$67:$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 3j / 100.00%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 3j / 0.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$68:$D$68</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Budget</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$G$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$H$67:$I$67</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 3j / 100.00%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 3j / 0.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$H$68:$I$68</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Appro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>APPRO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$M$67:$Nx$67</c:f>
+              <c:strCache>
+                <c:ptCount val="376"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 7j / 100.00%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 7j / 0.00%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$68:$N$68</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Fin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$88:$D$88</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 7j / 100.00%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 7j / 0.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$89:$D$89</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Chorus formul.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$G$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$H$88:$I$88</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 10j / 100.00%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; à 10j / 0.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$H$89:$I$89</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PFAF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PFAF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$M$88:$N$88</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 14j / 100.00%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; à 14j / 0.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$89:$N$89</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1040,15 +4452,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1074,13 +4486,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1097,6 +4509,422 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 4" id="4100"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 5" id="5125"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 6" id="6150"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 7" id="7175"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 8" id="8200"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 9" id="9225"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 10" id="10250"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 11" id="11275"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 12" id="12300"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 13" id="13325"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 14" id="14350"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 15" id="15375"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 16" id="16400"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1395,265 +5223,1350 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:Q187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B22" sqref="B22:O24"/>
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="15" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15" customWidth="true" style="0"/>
+    <col min="5" max="5" width="15" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15" customWidth="true" style="0"/>
+    <col min="7" max="7" width="15" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15" customWidth="true" style="0"/>
+    <col min="16" max="16" width="15" customWidth="true" style="0"/>
+    <col min="17" max="17" width="15" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:17">
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:17">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O4" s="6">
+        <f>SUM(C4:N4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C5" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="5">
+        <f>SUM(C5:N5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="2">
+        <f>SUM(C6:N6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="2"/>
     </row>
-    <row r="3" spans="1:23">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+    <row r="22" spans="1:17">
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="6">
+        <f>SUM(C22:N22)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>123.0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="5">
+        <f>SUM(C23:N23)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
-        <v>70991.47</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.22</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="C24" s="2">
+        <v>135.0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="2">
+        <f>SUM(C24:N24)</f>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="3">
-        <v>46633</v>
-      </c>
-      <c r="K3" s="4">
-        <v>20465</v>
-      </c>
-      <c r="L3" s="5">
-        <v>2295</v>
-      </c>
-      <c r="M3" s="6">
-        <v>1471</v>
-      </c>
-      <c r="N3" s="7">
-        <v>100</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="3">
+    </row>
+    <row r="43" spans="1:17">
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="B45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="B47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="B48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="B50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="B67" s="2"/>
+      <c r="C67" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="4">
-        <v>7</v>
-      </c>
-      <c r="U3" s="5">
+      <c r="D67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="B68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="6">
+        <v>2</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="6">
+        <v>2</v>
+      </c>
+      <c r="N68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="B88" s="2"/>
+      <c r="C88" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L88" s="2"/>
+      <c r="M88" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="B89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="6">
+        <v>2</v>
+      </c>
+      <c r="D89" s="5">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" s="6">
+        <v>2</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" s="6">
+        <v>2</v>
+      </c>
+      <c r="N89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="B109" s="2"/>
+      <c r="C109" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="B110" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" s="6">
+        <v>2</v>
+      </c>
+      <c r="D110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="B132" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="E132" s="2">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="B133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="B134" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C134" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="D134" s="2">
+        <v>123.0</v>
+      </c>
+      <c r="E134" s="2">
+        <v>135.0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="B135" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" s="2">
+        <v>8.89</v>
+      </c>
+      <c r="D135" s="2">
+        <v>91.11</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="B136" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C136" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="B140" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N140" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O140" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="B141" s="6">
+        <v>1</v>
+      </c>
+      <c r="C141" s="5">
+        <v>0</v>
+      </c>
+      <c r="D141" s="7">
+        <v>0</v>
+      </c>
+      <c r="E141" s="8">
+        <v>0</v>
+      </c>
+      <c r="G141" s="6">
+        <v>1</v>
+      </c>
+      <c r="H141" s="5">
+        <v>0</v>
+      </c>
+      <c r="I141" s="7">
+        <v>0</v>
+      </c>
+      <c r="J141" s="9">
+        <v>0</v>
+      </c>
+      <c r="L141" s="6">
+        <v>2</v>
+      </c>
+      <c r="M141" s="5">
+        <v>0</v>
+      </c>
+      <c r="N141" s="7">
+        <v>0</v>
+      </c>
+      <c r="O141" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="B160" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D161" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="E161" s="2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D162" s="2">
+        <v>1</v>
+      </c>
+      <c r="E162" s="2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="B165" t="s">
+        <v>67</v>
+      </c>
+      <c r="I165" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="C166" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D166" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="E166" s="5"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="10"/>
+      <c r="J166" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K166" s="6">
+        <v>1</v>
+      </c>
+      <c r="L166" s="5"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="8"/>
+      <c r="O166" s="10"/>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="C167" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D167" s="6">
+        <v>16</v>
+      </c>
+      <c r="E167" s="5"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="10"/>
+      <c r="J167" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K167" s="6">
+        <v>16</v>
+      </c>
+      <c r="L167" s="5"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="8"/>
+      <c r="O167" s="10"/>
+    </row>
+    <row r="185" spans="1:17">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="6">
-        <v>3</v>
-      </c>
-      <c r="W3" s="7">
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="B186" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C186" s="6">
         <v>2</v>
       </c>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6">
+        <f>SUM(C186:N186)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
+    <row r="187" spans="1:17">
+      <c r="B187" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C187" s="2">
         <v>50</v>
       </c>
-      <c r="E4" s="2">
-        <v>84.75</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="3">
-        <v>95</v>
-      </c>
-      <c r="K4" s="4">
-        <v>29</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="6">
-        <v>16</v>
-      </c>
-      <c r="N4" s="7">
-        <v>44</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="3">
-        <v>95</v>
-      </c>
-      <c r="T4" s="4">
-        <v>16</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="6">
-        <v>29</v>
-      </c>
-      <c r="W4" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="B23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2</v>
-      </c>
-      <c r="K23" s="3">
-        <v>4</v>
-      </c>
-      <c r="L23" s="3">
-        <v>12</v>
-      </c>
-      <c r="M23" s="3">
-        <v>13</v>
-      </c>
-      <c r="N23" s="3">
-        <v>20</v>
-      </c>
-      <c r="O23" s="3">
-        <f>SUM(C23:N23)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2">
-        <v>100</v>
-      </c>
-      <c r="D24" s="2">
-        <v>100</v>
-      </c>
-      <c r="E24" s="2">
-        <v>100</v>
-      </c>
-      <c r="F24" s="2">
-        <v>100</v>
-      </c>
-      <c r="G24" s="2">
-        <v>100</v>
-      </c>
-      <c r="H24" s="2">
-        <v>100</v>
-      </c>
-      <c r="I24" s="2">
-        <v>100</v>
-      </c>
-      <c r="J24" s="2">
-        <v>100</v>
-      </c>
-      <c r="K24" s="2">
-        <v>75</v>
-      </c>
-      <c r="L24" s="2">
-        <v>50</v>
-      </c>
-      <c r="M24" s="2">
-        <v>54</v>
-      </c>
-      <c r="N24" s="2">
-        <v>55</v>
-      </c>
-      <c r="O24" s="2">
-        <f>SUM(C24:N24) / 12</f>
-        <v>86.166666666667</v>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2">
+        <f>SUM(C187:N187) / 12</f>
+        <v>4.1666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/public/nom_de_fichier.xlsx
+++ b/public/nom_de_fichier.xlsx
@@ -15,123 +15,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
-  <si>
-    <t>Délai d'activité annuelle</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+  <si>
+    <t>COMPTE RENDU ANNUEL</t>
+  </si>
+  <si>
+    <t>Activités appro en volume/valeur</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>MPPA</t>
+  </si>
+  <si>
+    <t>MABC</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Avril</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Juin</t>
+  </si>
+  <si>
+    <t>Juillet</t>
+  </si>
+  <si>
+    <t>Août</t>
+  </si>
+  <si>
+    <t>Septembre</t>
+  </si>
+  <si>
+    <t>Octobre</t>
+  </si>
+  <si>
+    <t>Novembre</t>
+  </si>
+  <si>
+    <t>Décembre</t>
+  </si>
+  <si>
+    <t>Valeur (HT)</t>
   </si>
   <si>
     <t>Délai</t>
   </si>
   <si>
-    <t>Janvier</t>
-  </si>
-  <si>
-    <t>Février</t>
-  </si>
-  <si>
-    <t>Mars</t>
-  </si>
-  <si>
-    <t>Avril</t>
-  </si>
-  <si>
-    <t>Mai</t>
-  </si>
-  <si>
-    <t>Juin</t>
-  </si>
-  <si>
-    <t>Juillet</t>
-  </si>
-  <si>
-    <t>Août</t>
-  </si>
-  <si>
-    <t>Septembre</t>
-  </si>
-  <si>
-    <t>Octobre</t>
-  </si>
-  <si>
-    <t>Novembre</t>
-  </si>
-  <si>
-    <t>Décembre</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>ANT GSBDD</t>
+  </si>
+  <si>
+    <t>BUDGET</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>APPRO</t>
+  </si>
+  <si>
+    <t>FIN</t>
   </si>
   <si>
     <t>Notification</t>
   </si>
   <si>
+    <t>PFAF</t>
+  </si>
+  <si>
+    <t>Chorus formul.</t>
+  </si>
+  <si>
+    <t>Délai TOTAL</t>
+  </si>
+  <si>
+    <t>Ant. GSBDD</t>
+  </si>
+  <si>
+    <t>&lt;= 3j / 100.00%</t>
+  </si>
+  <si>
     <t>&gt; 3j / 0.00%</t>
   </si>
   <si>
-    <t>&gt; 7j / 0.00%</t>
-  </si>
-  <si>
-    <t>&gt; à 10j / 0.00%</t>
-  </si>
-  <si>
-    <t>&gt; à 14j / 0.00%</t>
-  </si>
-  <si>
-    <t>&gt; à 15j / 0.00%</t>
-  </si>
-  <si>
-    <t>Transmission</t>
-  </si>
-  <si>
-    <t>&lt;= 3j / 100.00%</t>
-  </si>
-  <si>
-    <t>&lt;= 7j / 100.00%</t>
-  </si>
-  <si>
-    <t>&lt; 7j / 100.00%</t>
-  </si>
-  <si>
-    <t>&lt;= 10j / 100.00%</t>
-  </si>
-  <si>
-    <t>&lt;= 14j / 100.00%</t>
-  </si>
-  <si>
-    <t>&lt;= 15j / 100.00%</t>
-  </si>
-  <si>
-    <t>ANT GSBDD</t>
-  </si>
-  <si>
-    <t>BUDGET</t>
-  </si>
-  <si>
-    <t>APPRO</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>PFAF</t>
-  </si>
-  <si>
-    <t>Chorus formul.</t>
-  </si>
-  <si>
-    <t>Délai TOTAL</t>
-  </si>
-  <si>
-    <t>Ant. GSBDD</t>
-  </si>
-  <si>
     <t>Budget</t>
   </si>
   <si>
+    <t>&lt;= 3j / 98.00%</t>
+  </si>
+  <si>
+    <t>&gt; 3j / 2.00%</t>
+  </si>
+  <si>
+    <t>&lt;= 7j / 80.00%</t>
+  </si>
+  <si>
+    <t>&gt; 7j / 20.00%</t>
+  </si>
+  <si>
     <t>Fin</t>
   </si>
   <si>
+    <t>&lt; 7j / 88.00%</t>
+  </si>
+  <si>
+    <t>&gt; 7j / 12.00%</t>
+  </si>
+  <si>
+    <t>&lt;= 10j / 76.00%</t>
+  </si>
+  <si>
+    <t>&gt; à 10j / 24.00%</t>
+  </si>
+  <si>
+    <t>&lt;= 14j / 86.00%</t>
+  </si>
+  <si>
+    <t>&gt; à 14j / 14.00%</t>
+  </si>
+  <si>
     <t>Délai total</t>
+  </si>
+  <si>
+    <t>&lt;= 15j / 92.00%</t>
+  </si>
+  <si>
+    <t>&gt; à 15j / 8.00%</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>MOYENNE</t>
+  </si>
+  <si>
+    <t>% VALEUR</t>
+  </si>
+  <si>
+    <t>% VOLUME</t>
+  </si>
+  <si>
+    <t>TOTAUX</t>
+  </si>
+  <si>
+    <t>X &lt;= 200</t>
+  </si>
+  <si>
+    <t>Montant des MPPA</t>
+  </si>
+  <si>
+    <t>200 &lt; X &lt;=1500</t>
+  </si>
+  <si>
+    <t>1500 &lt; X &lt;=4000</t>
+  </si>
+  <si>
+    <t>X &gt; 4000</t>
+  </si>
+  <si>
+    <t>Montant des MABC</t>
+  </si>
+  <si>
+    <t>Montant des MABC + MPPA</t>
+  </si>
+  <si>
+    <t>MPPA PME</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>% PME</t>
+  </si>
+  <si>
+    <t>DEPARTEMENT</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>NB MPPA PME</t>
+  </si>
+  <si>
+    <t>% MPPA</t>
+  </si>
+  <si>
+    <t>Activités appro délais</t>
+  </si>
+  <si>
+    <t>Activités par type de marché</t>
+  </si>
+  <si>
+    <t>Activités des PME</t>
+  </si>
+  <si>
+    <t>TOP PME VALEUR</t>
+  </si>
+  <si>
+    <t>TOP PME VOLUME</t>
   </si>
 </sst>
 </file>
@@ -139,7 +238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -155,11 +254,20 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +286,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9bbb59"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8064a2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4bacc6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,17 +328,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,7 +388,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Délai d'activié annuelle</a:t>
+              <a:t>Activité appro en volume</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -269,11 +411,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$B$5</c:f>
+              <c:f>Worksheet!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Transmission</c:v>
+                  <c:v>MPPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -284,7 +426,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$C$2:$N$2</c:f>
+              <c:f>Worksheet!$C$3:$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -328,11 +470,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$C$5:$N$5</c:f>
+              <c:f>Worksheet!$C$4:$N$4</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -376,11 +518,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$B$8</c:f>
+              <c:f>Worksheet!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Notification</c:v>
+                  <c:v>MABC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -391,11 +533,11 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$C$8:$N$8</c:f>
+              <c:f>Worksheet!$C$5:$N$5</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -429,6 +571,1325 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Délai Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$109:$D$109</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 15j / 92.00%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; à 15j / 8.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$110:$D$110</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MPPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$C$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MPPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$B$140:$E$140</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200 &lt; X &lt;=1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X &gt; 4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$B$141:$E$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MABC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$H$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MABC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$G$140:$J$140</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200 &lt; X &lt;=1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X &gt; 4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$G$141:$J$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MABC + MPPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$M$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MABC + MPPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$L$140:$M$140</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200 &lt; X &lt;=1500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$L$141:$O$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VALEUR</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$D$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$B$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP PME VALEUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$D$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$E$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$E$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$F$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$F$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$G$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$G$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$H$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$H$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VOLUME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$K$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$I$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP PME VOLUME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$K$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$L$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$M$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$N$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$N$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$O$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$O$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Activité appro PME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$186</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NB MPPA PME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$185:$N$185</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$186:$N$186</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,7 +1997,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>ANT GSBDD</a:t>
+              <a:t>Activité appro en valeur (HT)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -550,18 +2011,20 @@
       <c:layout>
         <c:manualLayout/>
       </c:layout>
-      <c:pieChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$A$28</c:f>
+              <c:f>Worksheet!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ant. GSBDD</c:v>
+                  <c:v>MPPA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -569,29 +2032,153 @@
           <c:spPr>
             <a:ln/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$B$27:$C$27</c:f>
+              <c:f>Worksheet!$C$3:$N$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>&lt;= 3j / 100.00%</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; 3j / 0.00%</c:v>
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Juin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juillet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Août</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octobre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$B$28:$C$28</c:f>
+              <c:f>Worksheet!$C$22:$N$22</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>83532.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MABC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$23:$N$23</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>312695.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -601,8 +2188,47 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -661,7 +2287,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Budget</a:t>
+              <a:t>Délai d'activié annuelle</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -675,18 +2301,20 @@
       <c:layout>
         <c:manualLayout/>
       </c:layout>
-      <c:pieChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$G$28</c:f>
+              <c:f>Worksheet!$B$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Budget</c:v>
+                  <c:v>Transmission</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -694,29 +2322,153 @@
           <c:spPr>
             <a:ln/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$H$27:$I$27</c:f>
+              <c:f>Worksheet!$C$42:$N$42</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>&lt;= 3j / 100.00%</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; 3j / 0.00%</c:v>
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Juin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juillet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Août</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octobre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$H$28:$I$28</c:f>
+              <c:f>Worksheet!$C$45:$N$45</c:f>
               <c:numCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Notification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$48:$N$48</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -726,8 +2478,47 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -786,7 +2577,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Appro</a:t>
+              <a:t>ANT GSBDD</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -807,11 +2598,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$M$28</c:f>
+              <c:f>Worksheet!$B$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>APPRO</c:v>
+                  <c:v>Ant. GSBDD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -821,25 +2612,25 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$N$27:$O$27</c:f>
+              <c:f>Worksheet!$C$67:$D$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 7j / 100.00%</c:v>
+                  <c:v>&lt;= 3j / 100.00%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; 7j / 0.00%</c:v>
+                  <c:v>&gt; 3j / 0.00%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$N$28:$O$28</c:f>
+              <c:f>Worksheet!$C$68:$D$68</c:f>
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -911,7 +2702,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Fin</a:t>
+              <a:t>Budget</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -930,33 +2721,44 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$G$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$B$43:$C$43</c:f>
+              <c:f>Worksheet!$H$67:$I$67</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt; 7j / 100.00%</c:v>
+                  <c:v>&lt;= 3j / 98.00%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; 7j / 0.00%</c:v>
+                  <c:v>&gt; 3j / 2.00%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$B$44:$C$44</c:f>
+              <c:f>Worksheet!$H$68:$I$68</c:f>
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1025,7 +2827,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Chorus formul.</a:t>
+              <a:t>Appro</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1044,33 +2846,1166 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>APPRO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$H$43:$I$43</c:f>
+              <c:f>Worksheet!$M$67:$Nx$67</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>&lt;= 10j / 100.00%</c:v>
+                <c:ptCount val="376"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 7j / 80.00%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; à 10j / 0.00%</c:v>
+                  <c:v>&gt; 7j / 20.00%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$H$44:$I$44</c:f>
+              <c:f>Worksheet!$M$68:$N$68</c:f>
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +4074,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>PFAF</a:t>
+              <a:t>Fin</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1160,11 +4095,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$M$44</c:f>
+              <c:f>Worksheet!$B$88</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PFAF</c:v>
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1174,28 +4109,28 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$N$43:$O$43</c:f>
+              <c:f>Worksheet!$C$88:$D$88</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 14j / 100.00%</c:v>
+                  <c:v>&lt; 7j / 88.00%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; à 14j / 0.00%</c:v>
+                  <c:v>&gt; 7j / 12.00%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$N$44:$O$44</c:f>
+              <c:f>Worksheet!$C$89:$D$89</c:f>
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,7 +4199,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Délai Total</a:t>
+              <a:t>Chorus formul.</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1283,33 +4218,169 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$G$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$B$60:$C$60</c:f>
+              <c:f>Worksheet!$H$88:$I$88</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 15j / 100.00%</c:v>
+                  <c:v>&lt;= 10j / 76.00%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; à 15j / 0.00%</c:v>
+                  <c:v>&gt; à 10j / 24.00%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$B$61:$C$61</c:f>
+              <c:f>Worksheet!$H$89:$I$89</c:f>
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PFAF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PFAF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$M$88:$N$88</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 14j / 86.00%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; à 14j / 14.00%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$89:$N$89</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,13 +4431,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1392,13 +4463,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1422,15 +4493,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1454,15 +4525,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1486,15 +4557,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1518,15 +4589,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1550,15 +4621,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1582,15 +4653,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1607,6 +4678,262 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 9" id="9225"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 10" id="10250"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 11" id="11275"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 12" id="12300"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 13" id="13325"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 14" id="14350"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 15" id="15375"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 16" id="16400"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1905,15 +5232,14 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B60" sqref="B60:C61"/>
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="true" style="0"/>
     <col min="2" max="2" width="15" customWidth="true" style="0"/>
     <col min="3" max="3" width="15" customWidth="true" style="0"/>
     <col min="4" max="4" width="15" customWidth="true" style="0"/>
@@ -1938,624 +5264,1346 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0.0</v>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="B4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.0</v>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O4" s="6">
+        <f>SUM(C4:N4)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0</v>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="5">
+        <f>SUM(C5:N5)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.0</v>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="2">
+        <f>SUM(C6:N6)</f>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.0</v>
-      </c>
+    <row r="21" spans="1:17">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="2"/>
     </row>
-    <row r="8" spans="1:17">
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.0</v>
+    <row r="22" spans="1:17">
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>83532.63</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="6">
+        <f>SUM(C22:N22)</f>
+        <v>83532.63</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>312695.47</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="5">
+        <f>SUM(C23:N23)</f>
+        <v>312695.47</v>
+      </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>396228.1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="2">
+        <f>SUM(C24:N24)</f>
+        <v>396228.1</v>
+      </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
+    <row r="40" spans="1:17">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
     </row>
-    <row r="26" spans="1:17">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="B27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="5" t="s">
+    <row r="42" spans="1:17">
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="5" t="s">
+      <c r="N42" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="4">
-        <v>2</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" s="4">
-        <v>2</v>
-      </c>
-      <c r="O28" s="5">
-        <v>0</v>
+      <c r="O42" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="B43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O43" s="2" t="s">
-        <v>19</v>
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0.005</v>
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.26</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0.021666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="B45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0.026666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6.96</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="B47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="B48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="5">
+        <v>11.46</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2">
+        <v>11.46</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="B50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="2">
+        <v>11.72</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0.97666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0.98333333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="B67" s="2"/>
+      <c r="C67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="B68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="6">
+        <v>50</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="6">
+        <v>49</v>
+      </c>
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="6">
+        <v>40</v>
+      </c>
+      <c r="N68" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="B88" s="2"/>
+      <c r="C88" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L88" s="2"/>
+      <c r="M88" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="B89" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="4">
+      <c r="C89" s="6">
+        <v>44</v>
+      </c>
+      <c r="D89" s="5">
+        <v>6</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" s="6">
+        <v>38</v>
+      </c>
+      <c r="I89" s="5">
+        <v>12</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" s="6">
+        <v>43</v>
+      </c>
+      <c r="N89" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="B109" s="2"/>
+      <c r="C109" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="B110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="6">
+        <v>46</v>
+      </c>
+      <c r="D110" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="B132" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="B133" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="B134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="B135" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="B136" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="B140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N140" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O140" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="B141" s="6">
         <v>2</v>
       </c>
-      <c r="C44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="C141" s="5">
+        <v>6</v>
+      </c>
+      <c r="D141" s="7">
+        <v>4</v>
+      </c>
+      <c r="E141" s="8">
+        <v>11</v>
+      </c>
+      <c r="G141" s="6">
+        <v>1</v>
+      </c>
+      <c r="H141" s="5">
+        <v>9</v>
+      </c>
+      <c r="I141" s="7">
+        <v>8</v>
+      </c>
+      <c r="J141" s="9">
+        <v>9</v>
+      </c>
+      <c r="L141" s="6">
+        <v>3</v>
+      </c>
+      <c r="M141" s="5">
+        <v>15</v>
+      </c>
+      <c r="N141" s="7">
+        <v>12</v>
+      </c>
+      <c r="O141" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="B160" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" s="2">
+        <v>72085.6</v>
+      </c>
+      <c r="E161" s="2">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" s="2">
+        <v>20</v>
+      </c>
+      <c r="E162" s="2">
+        <v>74.07</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="B165" t="s">
+        <v>70</v>
+      </c>
+      <c r="I165" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="C166" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" s="6">
+        <v>47606.0</v>
+      </c>
+      <c r="E166" s="5">
+        <v>5657.0</v>
+      </c>
+      <c r="F166" s="7">
+        <v>4825.0</v>
+      </c>
+      <c r="G166" s="8">
+        <v>4034.0</v>
+      </c>
+      <c r="H166" s="10">
+        <v>3862.0</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K166" s="6">
+        <v>10</v>
+      </c>
+      <c r="L166" s="5">
         <v>2</v>
       </c>
-      <c r="I44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="4">
-        <v>2</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
+      <c r="M166" s="7">
+        <v>1</v>
+      </c>
+      <c r="N166" s="8">
+        <v>1</v>
+      </c>
+      <c r="O166" s="10">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
-      <c r="B60" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>20</v>
+    <row r="167" spans="1:17">
+      <c r="C167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" s="6">
+        <v>29</v>
+      </c>
+      <c r="E167" s="5">
+        <v>13</v>
+      </c>
+      <c r="F167" s="7">
+        <v>17</v>
+      </c>
+      <c r="G167" s="8">
+        <v>74</v>
+      </c>
+      <c r="H167" s="10">
+        <v>56</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K167" s="6">
+        <v>29</v>
+      </c>
+      <c r="L167" s="5">
+        <v>56</v>
+      </c>
+      <c r="M167" s="7">
+        <v>13</v>
+      </c>
+      <c r="N167" s="8">
+        <v>76</v>
+      </c>
+      <c r="O167" s="10">
+        <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61" s="4">
-        <v>2</v>
-      </c>
-      <c r="C61" s="5">
-        <v>0</v>
+    <row r="185" spans="1:17">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="B186" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C186" s="6">
+        <v>37</v>
+      </c>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6">
+        <f>SUM(C186:N186)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
+      <c r="B187" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C187" s="2">
+        <v>74.0741</v>
+      </c>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2">
+        <f>SUM(C187:N187) / 12</f>
+        <v>6.1728416666667</v>
       </c>
     </row>
   </sheetData>

--- a/public/nom_de_fichier.xlsx
+++ b/public/nom_de_fichier.xlsx
@@ -15,20 +15,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+  <si>
+    <t>COMPTE RENDU ANNUEL</t>
+  </si>
   <si>
     <t>Activités appro en volume/valeur</t>
   </si>
   <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>MPPA</t>
+  </si>
+  <si>
     <t>MABC</t>
   </si>
   <si>
-    <t>MPPA</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -69,6 +72,165 @@
   </si>
   <si>
     <t>Valeur (HT)</t>
+  </si>
+  <si>
+    <t>Délai</t>
+  </si>
+  <si>
+    <t>ANT GSBDD</t>
+  </si>
+  <si>
+    <t>BUDGET</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>APPRO</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>PFAF</t>
+  </si>
+  <si>
+    <t>Chorus formul.</t>
+  </si>
+  <si>
+    <t>Délai TOTAL</t>
+  </si>
+  <si>
+    <t>Ant. GSBDD</t>
+  </si>
+  <si>
+    <t>&lt;= 3j / 95.65%</t>
+  </si>
+  <si>
+    <t>&gt; 3j / 4.35%</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>&lt;= 3j / 91.91%</t>
+  </si>
+  <si>
+    <t>&gt; 3j / 8.09%</t>
+  </si>
+  <si>
+    <t>&lt;= 7j / 64.99%</t>
+  </si>
+  <si>
+    <t>&gt; 7j / 35.01%</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>&lt; 7j / 94.51%</t>
+  </si>
+  <si>
+    <t>&gt; 7j / 5.49%</t>
+  </si>
+  <si>
+    <t>&lt;= 10j / 69.21%</t>
+  </si>
+  <si>
+    <t>&gt; à 10j / 30.79%</t>
+  </si>
+  <si>
+    <t>&lt;= 14j / 89.90%</t>
+  </si>
+  <si>
+    <t>&gt; à 14j / 10.10%</t>
+  </si>
+  <si>
+    <t>Délai total</t>
+  </si>
+  <si>
+    <t>&lt;= 15j / 85.07%</t>
+  </si>
+  <si>
+    <t>&gt; à 15j / 14.93%</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>MOYENNE</t>
+  </si>
+  <si>
+    <t>% VALEUR</t>
+  </si>
+  <si>
+    <t>% VOLUME</t>
+  </si>
+  <si>
+    <t>TOTAUX</t>
+  </si>
+  <si>
+    <t>X &lt;= 200</t>
+  </si>
+  <si>
+    <t>Montant des MPPA</t>
+  </si>
+  <si>
+    <t>200 &lt; X &lt;=1500</t>
+  </si>
+  <si>
+    <t>1500 &lt; X &lt;=4000</t>
+  </si>
+  <si>
+    <t>X &gt; 4000</t>
+  </si>
+  <si>
+    <t>Montant des MABC</t>
+  </si>
+  <si>
+    <t>Montant des MABC + MPPA</t>
+  </si>
+  <si>
+    <t>MPPA PME</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>% PME</t>
+  </si>
+  <si>
+    <t>DEPARTEMENT</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>NB MPPA PME</t>
+  </si>
+  <si>
+    <t>% MPPA</t>
+  </si>
+  <si>
+    <t>Activités appro délais</t>
+  </si>
+  <si>
+    <t>Activités par type de marché</t>
+  </si>
+  <si>
+    <t>Activités des PME</t>
+  </si>
+  <si>
+    <t>TOP PME VALEUR</t>
+  </si>
+  <si>
+    <t>TOP PME VOLUME</t>
   </si>
 </sst>
 </file>
@@ -76,7 +238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -92,16 +254,31 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFc0504d"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -111,12 +288,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc0504d"/>
+        <fgColor rgb="FF9bbb59"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8064a2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4bacc6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,16 +328,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,44 +426,44 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$C$2:$N$2</c:f>
+              <c:f>Worksheet!$C$3:$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Janvier</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>Février</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>Mars</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>Avril</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>Mai</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>Juin</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>Juillet</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>Août</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>Septembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>Octobre</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>Novembre</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -365,6 +571,1325 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Délai Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$109:$D$109</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 15j / 85.07%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; à 15j / 14.93%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$110:$D$110</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MPPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$C$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MPPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$B$140:$E$140</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200 &lt; X &lt;=1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X &gt; 4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$B$141:$E$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MABC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$H$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MABC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$G$140:$J$140</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200 &lt; X &lt;=1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X &gt; 4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$G$141:$J$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MABC + MPPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$M$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MABC + MPPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$L$140:$M$140</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200 &lt; X &lt;=1500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$L$141:$O$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VALEUR</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$D$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$B$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP PME VALEUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$D$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1483743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$E$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$E$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1263526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$F$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$F$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>389108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$G$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$G$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>373144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$H$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$H$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>201136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VOLUME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$K$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$I$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP PME VOLUME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$K$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>421</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$L$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$M$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$N$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$N$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$O$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$O$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Activité appro PME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$186</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NB MPPA PME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$185:$N$185</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Juin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juillet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Août</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octobre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Décembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$186:$N$186</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -510,51 +2035,51 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$C$2:$N$2</c:f>
+              <c:f>Worksheet!$C$3:$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Janvier</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>Février</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>Mars</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>Avril</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>Mai</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>Juin</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>Juillet</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>Août</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>Septembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>Octobre</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>Novembre</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$C$24:$N$24</c:f>
+              <c:f>Worksheet!$C$22:$N$22</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -617,7 +2142,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$C$25:$N$25</c:f>
+              <c:f>Worksheet!$C$23:$N$23</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -738,6 +2263,2168 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Délai d'activié annuelle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$42:$N$42</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Juin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juillet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Août</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octobre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Décembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$45:$N$45</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.66</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Notification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$48:$N$48</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ANT GSBDD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ant. GSBDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$67:$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 3j / 95.65%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 3j / 4.35%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$68:$D$68</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3191</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Budget</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$G$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$H$67:$I$67</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 3j / 91.91%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 3j / 8.09%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$H$68:$I$68</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Appro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>APPRO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$M$67:$Nx$67</c:f>
+              <c:strCache>
+                <c:ptCount val="376"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 7j / 64.99%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 7j / 35.01%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$68:$N$68</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Fin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$88:$D$88</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 7j / 94.51%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 7j / 5.49%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$89:$D$89</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Chorus formul.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$G$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$H$88:$I$88</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 10j / 69.21%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; à 10j / 30.79%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$H$89:$I$89</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PFAF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PFAF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$M$88:$N$88</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 14j / 89.90%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; à 14j / 10.10%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$89:$N$89</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -750,7 +4437,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -776,13 +4463,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -799,6 +4486,454 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 3" id="3075"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 4" id="4100"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 5" id="5125"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 6" id="6150"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 7" id="7175"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 8" id="8200"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 9" id="9225"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 10" id="10250"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 11" id="11275"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 12" id="12300"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 13" id="13325"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 14" id="14350"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 15" id="15375"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 16" id="16400"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1097,10 +5232,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B23" sqref="B23:O26"/>
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1128,362 +5263,1417 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
     <row r="3" spans="1:17">
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>112</v>
-      </c>
-      <c r="D4" s="3">
-        <v>161</v>
-      </c>
-      <c r="E4" s="3">
-        <v>218</v>
-      </c>
-      <c r="F4" s="3">
-        <v>128</v>
-      </c>
-      <c r="G4" s="3">
-        <v>133</v>
-      </c>
-      <c r="H4" s="3">
-        <v>210</v>
-      </c>
-      <c r="I4" s="3">
-        <v>177</v>
-      </c>
-      <c r="J4" s="3">
-        <v>85</v>
-      </c>
-      <c r="K4" s="3">
-        <v>120</v>
-      </c>
-      <c r="L4" s="3">
-        <v>231</v>
-      </c>
-      <c r="M4" s="3">
-        <v>167</v>
-      </c>
-      <c r="N4" s="3">
-        <v>192</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>112.0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>161.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>218.0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>128.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>133.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>210.0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>177.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>85.0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>231.0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>167.0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>192.0</v>
+      </c>
+      <c r="O4" s="6">
         <f>SUM(C4:N4)</f>
         <v>1934</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>71</v>
-      </c>
-      <c r="D5" s="4">
-        <v>117</v>
-      </c>
-      <c r="E5" s="4">
-        <v>140</v>
-      </c>
-      <c r="F5" s="4">
-        <v>110</v>
-      </c>
-      <c r="G5" s="4">
-        <v>101</v>
-      </c>
-      <c r="H5" s="4">
-        <v>141</v>
-      </c>
-      <c r="I5" s="4">
-        <v>118</v>
-      </c>
-      <c r="J5" s="4">
-        <v>83</v>
-      </c>
-      <c r="K5" s="4">
-        <v>109</v>
-      </c>
-      <c r="L5" s="4">
-        <v>131</v>
-      </c>
-      <c r="M5" s="4">
-        <v>118</v>
-      </c>
-      <c r="N5" s="4">
-        <v>163</v>
-      </c>
-      <c r="O5" s="4">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>71.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>117.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>140.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>110.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>101.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>141.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>118.0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>83.0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>109.0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>131.0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>118.0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>163.0</v>
+      </c>
+      <c r="O5" s="5">
         <f>SUM(C5:N5)</f>
         <v>1402</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>183</v>
+        <v>183.0</v>
       </c>
       <c r="D6" s="2">
-        <v>278</v>
+        <v>278.0</v>
       </c>
       <c r="E6" s="2">
-        <v>358</v>
+        <v>358.0</v>
       </c>
       <c r="F6" s="2">
-        <v>238</v>
+        <v>238.0</v>
       </c>
       <c r="G6" s="2">
-        <v>234</v>
+        <v>234.0</v>
       </c>
       <c r="H6" s="2">
-        <v>351</v>
+        <v>351.0</v>
       </c>
       <c r="I6" s="2">
-        <v>295</v>
+        <v>295.0</v>
       </c>
       <c r="J6" s="2">
-        <v>168</v>
+        <v>168.0</v>
       </c>
       <c r="K6" s="2">
-        <v>229</v>
+        <v>229.0</v>
       </c>
       <c r="L6" s="2">
-        <v>362</v>
+        <v>362.0</v>
       </c>
       <c r="M6" s="2">
-        <v>285</v>
+        <v>285.0</v>
       </c>
       <c r="N6" s="2">
-        <v>355</v>
+        <v>355.0</v>
       </c>
       <c r="O6" s="2">
         <f>SUM(C6:N6)</f>
         <v>3336</v>
       </c>
     </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>345026.25</v>
+      </c>
+      <c r="D22" s="6">
+        <v>925640.14</v>
+      </c>
+      <c r="E22" s="6">
+        <v>858220.17</v>
+      </c>
+      <c r="F22" s="6">
+        <v>624384.04</v>
+      </c>
+      <c r="G22" s="6">
+        <v>761864.77</v>
+      </c>
+      <c r="H22" s="6">
+        <v>823575.26</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1184438.15</v>
+      </c>
+      <c r="J22" s="6">
+        <v>411541.3</v>
+      </c>
+      <c r="K22" s="6">
+        <v>613976.15</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1448787.73</v>
+      </c>
+      <c r="M22" s="6">
+        <v>962767.84</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1282871.89</v>
+      </c>
+      <c r="O22" s="6">
+        <f>SUM(C22:N22)</f>
+        <v>10243093.69</v>
+      </c>
+    </row>
     <row r="23" spans="1:17">
-      <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>868961.6</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3689067.97</v>
+      </c>
+      <c r="E23" s="5">
+        <v>7492687.61</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1839412.42</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1153955.55</v>
+      </c>
+      <c r="H23" s="5">
+        <v>5424673.81</v>
+      </c>
+      <c r="I23" s="5">
+        <v>3763430.66</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3174432.78</v>
+      </c>
+      <c r="K23" s="5">
+        <v>6113363.39</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1473838.82</v>
+      </c>
+      <c r="M23" s="5">
+        <v>2225946.87</v>
+      </c>
+      <c r="N23" s="5">
+        <v>12802694.32</v>
+      </c>
+      <c r="O23" s="5">
+        <f>SUM(C23:N23)</f>
+        <v>50022465.8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="B24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
-        <v>345026.25</v>
-      </c>
-      <c r="D24" s="3">
-        <v>925640.14</v>
-      </c>
-      <c r="E24" s="3">
-        <v>858220.17</v>
-      </c>
-      <c r="F24" s="3">
-        <v>624384.04</v>
-      </c>
-      <c r="G24" s="3">
-        <v>761864.77</v>
-      </c>
-      <c r="H24" s="3">
-        <v>823575.26</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1184438.15</v>
-      </c>
-      <c r="J24" s="3">
-        <v>411541.3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>613976.15</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1448787.73</v>
-      </c>
-      <c r="M24" s="3">
-        <v>962767.84</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1282871.89</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1213987.85</v>
+      </c>
+      <c r="D24" s="2">
+        <v>4614708.11</v>
+      </c>
+      <c r="E24" s="2">
+        <v>8350907.78</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2463796.46</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1915820.32</v>
+      </c>
+      <c r="H24" s="2">
+        <v>6248249.07</v>
+      </c>
+      <c r="I24" s="2">
+        <v>4947868.81</v>
+      </c>
+      <c r="J24" s="2">
+        <v>3585974.08</v>
+      </c>
+      <c r="K24" s="2">
+        <v>6727339.54</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2922626.55</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3188714.71</v>
+      </c>
+      <c r="N24" s="2">
+        <v>14085566.21</v>
+      </c>
+      <c r="O24" s="2">
         <f>SUM(C24:N24)</f>
-        <v>10243093.69</v>
+        <v>60265559.49</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>868961.6</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3689067.97</v>
-      </c>
-      <c r="E25" s="4">
-        <v>7492687.61</v>
-      </c>
-      <c r="F25" s="4">
-        <v>1839412.42</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1153955.55</v>
-      </c>
-      <c r="H25" s="4">
-        <v>5424673.81</v>
-      </c>
-      <c r="I25" s="4">
-        <v>3763430.66</v>
-      </c>
-      <c r="J25" s="4">
-        <v>3174432.78</v>
-      </c>
-      <c r="K25" s="4">
-        <v>6113363.39</v>
-      </c>
-      <c r="L25" s="4">
-        <v>1473838.82</v>
-      </c>
-      <c r="M25" s="4">
-        <v>2225946.87</v>
-      </c>
-      <c r="N25" s="4">
-        <v>12802694.32</v>
-      </c>
-      <c r="O25" s="4">
-        <f>SUM(C25:N25)</f>
+    <row r="40" spans="1:17">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2.05</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1.1858333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="B45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2.55</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1.41</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1.41</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1.79</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1.13</v>
+      </c>
+      <c r="H45" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="I45" s="6">
+        <v>3.49</v>
+      </c>
+      <c r="J45" s="6">
+        <v>3.66</v>
+      </c>
+      <c r="K45" s="6">
+        <v>2.98</v>
+      </c>
+      <c r="L45" s="6">
+        <v>1.58</v>
+      </c>
+      <c r="M45" s="6">
+        <v>1.35</v>
+      </c>
+      <c r="N45" s="6">
+        <v>2.55</v>
+      </c>
+      <c r="O45" s="6">
+        <v>2.1658333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2">
+        <v>7.74</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6.87</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="F46" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="G46" s="2">
+        <v>12.37</v>
+      </c>
+      <c r="H46" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="I46" s="2">
+        <v>6.37</v>
+      </c>
+      <c r="J46" s="2">
+        <v>7.06</v>
+      </c>
+      <c r="K46" s="2">
+        <v>5.38</v>
+      </c>
+      <c r="L46" s="2">
+        <v>5.61</v>
+      </c>
+      <c r="M46" s="2">
+        <v>5.84</v>
+      </c>
+      <c r="N46" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="O46" s="2">
+        <v>7.3066666666667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="B47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="N47" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1.5441666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="B48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="5">
+        <v>9.76</v>
+      </c>
+      <c r="D48" s="5">
+        <v>9.79</v>
+      </c>
+      <c r="E48" s="5">
+        <v>10.29</v>
+      </c>
+      <c r="F48" s="5">
+        <v>8.93</v>
+      </c>
+      <c r="G48" s="5">
+        <v>13.2</v>
+      </c>
+      <c r="H48" s="5">
+        <v>9.09</v>
+      </c>
+      <c r="I48" s="5">
+        <v>8.02</v>
+      </c>
+      <c r="J48" s="5">
+        <v>7.31</v>
+      </c>
+      <c r="K48" s="5">
+        <v>7.04</v>
+      </c>
+      <c r="L48" s="5">
+        <v>6.64</v>
+      </c>
+      <c r="M48" s="5">
+        <v>7.45</v>
+      </c>
+      <c r="N48" s="5">
+        <v>8.69</v>
+      </c>
+      <c r="O48" s="5">
+        <v>8.8508333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2">
+        <v>9.76</v>
+      </c>
+      <c r="D49" s="2">
+        <v>9.79</v>
+      </c>
+      <c r="E49" s="2">
+        <v>10.29</v>
+      </c>
+      <c r="F49" s="2">
+        <v>8.94</v>
+      </c>
+      <c r="G49" s="2">
+        <v>13.21</v>
+      </c>
+      <c r="H49" s="2">
+        <v>9.09</v>
+      </c>
+      <c r="I49" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="J49" s="2">
+        <v>7.31</v>
+      </c>
+      <c r="K49" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="L49" s="2">
+        <v>6.64</v>
+      </c>
+      <c r="M49" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="N49" s="2">
+        <v>8.69</v>
+      </c>
+      <c r="O49" s="2">
+        <v>8.8533333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="B50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="2">
+        <v>11.81</v>
+      </c>
+      <c r="D50" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="E50" s="2">
+        <v>11.05</v>
+      </c>
+      <c r="F50" s="2">
+        <v>9.86</v>
+      </c>
+      <c r="G50" s="2">
+        <v>13.81</v>
+      </c>
+      <c r="H50" s="2">
+        <v>10.67</v>
+      </c>
+      <c r="I50" s="2">
+        <v>10.14</v>
+      </c>
+      <c r="J50" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="K50" s="2">
+        <v>8.34</v>
+      </c>
+      <c r="L50" s="2">
+        <v>7.23</v>
+      </c>
+      <c r="M50" s="2">
+        <v>8.09</v>
+      </c>
+      <c r="N50" s="2">
+        <v>9.76</v>
+      </c>
+      <c r="O50" s="2">
+        <v>10.038333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="D51" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="F51" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="G51" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="H51" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="I51" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="J51" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="M51" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="N51" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="O51" s="2">
+        <v>11.008333333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="B67" s="2"/>
+      <c r="C67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="B68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="6">
+        <v>3191</v>
+      </c>
+      <c r="D68" s="5">
+        <v>145</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="6">
+        <v>3066</v>
+      </c>
+      <c r="I68" s="5">
+        <v>270</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="6">
+        <v>2168</v>
+      </c>
+      <c r="N68" s="5">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="B88" s="2"/>
+      <c r="C88" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L88" s="2"/>
+      <c r="M88" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="B89" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="6">
+        <v>3153</v>
+      </c>
+      <c r="D89" s="5">
+        <v>183</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" s="6">
+        <v>2309</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1027</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" s="6">
+        <v>2999</v>
+      </c>
+      <c r="N89" s="5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="B109" s="2"/>
+      <c r="C109" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="B110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="6">
+        <v>2838</v>
+      </c>
+      <c r="D110" s="5">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="B132" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2">
         <v>50022465.8</v>
       </c>
+      <c r="E132" s="2">
+        <v>60265559.49</v>
+      </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1213987.85</v>
-      </c>
-      <c r="D26" s="2">
-        <v>4614708.11</v>
-      </c>
-      <c r="E26" s="2">
-        <v>8350907.78</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2463796.46</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1915820.32</v>
-      </c>
-      <c r="H26" s="2">
-        <v>6248249.07</v>
-      </c>
-      <c r="I26" s="2">
-        <v>4947868.81</v>
-      </c>
-      <c r="J26" s="2">
-        <v>3585974.08</v>
-      </c>
-      <c r="K26" s="2">
-        <v>6727339.54</v>
-      </c>
-      <c r="L26" s="2">
-        <v>2922626.55</v>
-      </c>
-      <c r="M26" s="2">
-        <v>3188714.71</v>
-      </c>
-      <c r="N26" s="2">
-        <v>14085566.21</v>
-      </c>
-      <c r="O26" s="2">
-        <f>SUM(C26:N26)</f>
-        <v>60265559.49</v>
+    <row r="133" spans="1:17">
+      <c r="B133" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" s="2">
+        <v>3336</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1402</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="B134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" s="2">
+        <v>5296.33</v>
+      </c>
+      <c r="D134" s="2">
+        <v>35679.36</v>
+      </c>
+      <c r="E134" s="2">
+        <v>40975.69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="B135" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C135" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>83.0</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="B136" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" s="2">
+        <v>57.97</v>
+      </c>
+      <c r="D136" s="2">
+        <v>42.03</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="B140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N140" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O140" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="B141" s="6">
+        <v>47</v>
+      </c>
+      <c r="C141" s="5">
+        <v>648</v>
+      </c>
+      <c r="D141" s="7">
+        <v>617</v>
+      </c>
+      <c r="E141" s="8">
+        <v>622</v>
+      </c>
+      <c r="G141" s="6">
+        <v>157</v>
+      </c>
+      <c r="H141" s="5">
+        <v>485</v>
+      </c>
+      <c r="I141" s="7">
+        <v>265</v>
+      </c>
+      <c r="J141" s="9">
+        <v>495</v>
+      </c>
+      <c r="L141" s="6">
+        <v>204</v>
+      </c>
+      <c r="M141" s="5">
+        <v>1133</v>
+      </c>
+      <c r="N141" s="7">
+        <v>882</v>
+      </c>
+      <c r="O141" s="8">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="B160" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" s="2">
+        <v>7053553.33</v>
+      </c>
+      <c r="E161" s="2">
+        <v>68.86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" s="2">
+        <v>1469</v>
+      </c>
+      <c r="E162" s="2">
+        <v>75.96</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="B165" t="s">
+        <v>70</v>
+      </c>
+      <c r="I165" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="C166" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" s="6">
+        <v>1483743</v>
+      </c>
+      <c r="E166" s="5">
+        <v>1263526</v>
+      </c>
+      <c r="F166" s="7">
+        <v>389108</v>
+      </c>
+      <c r="G166" s="8">
+        <v>373144</v>
+      </c>
+      <c r="H166" s="10">
+        <v>201136</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K166" s="6">
+        <v>421</v>
+      </c>
+      <c r="L166" s="5">
+        <v>181</v>
+      </c>
+      <c r="M166" s="7">
+        <v>55</v>
+      </c>
+      <c r="N166" s="8">
+        <v>55</v>
+      </c>
+      <c r="O166" s="10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="C167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" s="6">
+        <v>29</v>
+      </c>
+      <c r="E167" s="5">
+        <v>56</v>
+      </c>
+      <c r="F167" s="7">
+        <v>31</v>
+      </c>
+      <c r="G167" s="8">
+        <v>91</v>
+      </c>
+      <c r="H167" s="10">
+        <v>49</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K167" s="6">
+        <v>29</v>
+      </c>
+      <c r="L167" s="5">
+        <v>56</v>
+      </c>
+      <c r="M167" s="7">
+        <v>92</v>
+      </c>
+      <c r="N167" s="8">
+        <v>91</v>
+      </c>
+      <c r="O167" s="10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M185" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="B186" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C186" s="6">
+        <v>131</v>
+      </c>
+      <c r="D186" s="6">
+        <v>174</v>
+      </c>
+      <c r="E186" s="6">
+        <v>223</v>
+      </c>
+      <c r="F186" s="6">
+        <v>161</v>
+      </c>
+      <c r="G186" s="6">
+        <v>171</v>
+      </c>
+      <c r="H186" s="6">
+        <v>249</v>
+      </c>
+      <c r="I186" s="6">
+        <v>205</v>
+      </c>
+      <c r="J186" s="6">
+        <v>116</v>
+      </c>
+      <c r="K186" s="6">
+        <v>167</v>
+      </c>
+      <c r="L186" s="6">
+        <v>270</v>
+      </c>
+      <c r="M186" s="6">
+        <v>197</v>
+      </c>
+      <c r="N186" s="6">
+        <v>251</v>
+      </c>
+      <c r="O186" s="6">
+        <f>SUM(C186:N186)</f>
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
+      <c r="B187" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C187" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="D187" s="2">
+        <v>73.2919</v>
+      </c>
+      <c r="E187" s="2">
+        <v>71.3636</v>
+      </c>
+      <c r="F187" s="2">
+        <v>77.6923</v>
+      </c>
+      <c r="G187" s="2">
+        <v>82.2222</v>
+      </c>
+      <c r="H187" s="2">
+        <v>79.0476</v>
+      </c>
+      <c r="I187" s="2">
+        <v>69.7802</v>
+      </c>
+      <c r="J187" s="2">
+        <v>74.1176</v>
+      </c>
+      <c r="K187" s="2">
+        <v>76.0331</v>
+      </c>
+      <c r="L187" s="2">
+        <v>77.6824</v>
+      </c>
+      <c r="M187" s="2">
+        <v>70.2381</v>
+      </c>
+      <c r="N187" s="2">
+        <v>78.6458</v>
+      </c>
+      <c r="O187" s="2">
+        <f>SUM(C187:N187) / 12</f>
+        <v>75.426233333333</v>
       </c>
     </row>
   </sheetData>

--- a/public/nom_de_fichier.xlsx
+++ b/public/nom_de_fichier.xlsx
@@ -15,20 +15,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+  <si>
+    <t>COMPTE RENDU ANNUEL</t>
+  </si>
   <si>
     <t>Activités appro en volume/valeur</t>
   </si>
   <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>MPPA</t>
+  </si>
+  <si>
     <t>MABC</t>
   </si>
   <si>
-    <t>MPPA</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -69,6 +72,165 @@
   </si>
   <si>
     <t>Valeur (HT)</t>
+  </si>
+  <si>
+    <t>Délai</t>
+  </si>
+  <si>
+    <t>ANT GSBDD</t>
+  </si>
+  <si>
+    <t>BUDGET</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>APPRO</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>PFAF</t>
+  </si>
+  <si>
+    <t>Chorus formul.</t>
+  </si>
+  <si>
+    <t>Délai TOTAL</t>
+  </si>
+  <si>
+    <t>Ant. GSBDD</t>
+  </si>
+  <si>
+    <t>&lt;= 3j / 96.80%</t>
+  </si>
+  <si>
+    <t>&gt; 3j / 3.20%</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>&lt;= 3j / 96.49%</t>
+  </si>
+  <si>
+    <t>&gt; 3j / 3.51%</t>
+  </si>
+  <si>
+    <t>&lt;= 7j / 89.57%</t>
+  </si>
+  <si>
+    <t>&gt; 7j / 10.43%</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>&lt; 7j / 97.52%</t>
+  </si>
+  <si>
+    <t>&gt; 7j / 2.48%</t>
+  </si>
+  <si>
+    <t>&lt;= 10j / 91.84%</t>
+  </si>
+  <si>
+    <t>&gt; à 10j / 8.16%</t>
+  </si>
+  <si>
+    <t>&lt;= 14j / 97.42%</t>
+  </si>
+  <si>
+    <t>&gt; à 14j / 2.58%</t>
+  </si>
+  <si>
+    <t>Délai total</t>
+  </si>
+  <si>
+    <t>&lt;= 15j / 95.45%</t>
+  </si>
+  <si>
+    <t>&gt; à 15j / 4.55%</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>MOYENNE</t>
+  </si>
+  <si>
+    <t>% VALEUR</t>
+  </si>
+  <si>
+    <t>% VOLUME</t>
+  </si>
+  <si>
+    <t>TOTAUX</t>
+  </si>
+  <si>
+    <t>X &lt;= 1500</t>
+  </si>
+  <si>
+    <t>Montant des MPPA</t>
+  </si>
+  <si>
+    <t>1500 &lt; X &lt;=4000</t>
+  </si>
+  <si>
+    <t>4000 &lt; X &lt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X &gt; </t>
+  </si>
+  <si>
+    <t>Montant des MABC</t>
+  </si>
+  <si>
+    <t>Montant des MABC + MPPA</t>
+  </si>
+  <si>
+    <t>MPPA PME</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>% PME</t>
+  </si>
+  <si>
+    <t>DEPARTEMENT</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>NB MPPA PME</t>
+  </si>
+  <si>
+    <t>% MPPA</t>
+  </si>
+  <si>
+    <t>Activités appro délais</t>
+  </si>
+  <si>
+    <t>Activités par type de marché</t>
+  </si>
+  <si>
+    <t>Activités des PME</t>
+  </si>
+  <si>
+    <t>TOP PME VALEUR</t>
+  </si>
+  <si>
+    <t>TOP PME VOLUME</t>
   </si>
 </sst>
 </file>
@@ -76,7 +238,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -92,16 +254,31 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFc0504d"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -111,12 +288,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFc0504d"/>
+        <fgColor rgb="FF9bbb59"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8064a2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4bacc6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -139,19 +328,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="3" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,44 +426,44 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$C$2:$N$2</c:f>
+              <c:f>Worksheet!$C$3:$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Janvier</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>Février</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>Mars</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>Avril</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>Mai</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>Juin</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>Juillet</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>Août</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>Septembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>Octobre</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>Novembre</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -271,40 +474,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>112</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>218</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>177</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>229</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>166</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>192</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -334,40 +537,1359 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>141</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>117</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>132</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>163</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Délai Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$109</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$109:$D$109</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 15j / 95.45%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; à 15j / 4.55%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$110:$D$110</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MPPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$C$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MPPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$B$140:$E$140</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000 &lt; X &lt;=</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X &gt; </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$B$141:$E$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MABC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$H$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MABC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$G$140:$J$140</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000 &lt; X &lt;=</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>X &gt; </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$G$141:$J$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Montant des MABC + MPPA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$M$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montant des MABC + MPPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$L$140:$M$140</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>X &lt;= 1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500 &lt; X &lt;=4000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$L$141:$O$141</c:f>
+              <c:numCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VALEUR</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$D$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$B$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP PME VALEUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$D$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>480215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$E$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$E$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>294376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$F$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$F$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>96784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$G$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$G$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>55857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$H$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$H$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>44131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TOP 5 DEPARTEMENT MPPA PME EN VOLUME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$K$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$I$165</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOP PME VOLUME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$K$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$L$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$M$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$N$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$N$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$O$167</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$O$166</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Activité appro PME</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$186</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NB MPPA PME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$185:$N$185</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$186:$N$186</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,88 +2035,88 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$C$2:$N$2</c:f>
+              <c:f>Worksheet!$C$3:$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>Janvier</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>Février</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>Mars</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>Avril</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>Mai</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>Juin</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>Juillet</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>Août</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>Septembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>Octobre</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>Novembre</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$C$24:$N$24</c:f>
+              <c:f>Worksheet!$C$22:$N$22</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>345026.25</c:v>
+                  <c:v>469670.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>925640.14</c:v>
+                  <c:v>703184.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>858220.17</c:v>
+                  <c:v>677248.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>620145.74</c:v>
+                  <c:v>242280.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>761864.77</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>823575.26</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1184438.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>409003.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>613976.15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1442599.94</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>963762.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1283112.87</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,44 +2142,44 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$C$25:$N$25</c:f>
+              <c:f>Worksheet!$C$23:$N$23</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>868961.6</c:v>
+                  <c:v>574071.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3689067.97</c:v>
+                  <c:v>3196425.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7492687.61</c:v>
+                  <c:v>5327326.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1839412.42</c:v>
+                  <c:v>355189</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1153955.55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5424673.81</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3761686.58</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3174432.78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6113363.39</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1477638.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2231035.98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12857910.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,6 +2263,2168 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Délai d'activié annuelle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transmission</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$42:$N$42</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Janvier</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Février</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Avril</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mai</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Juin</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Juillet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Août</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Septembre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Octobre</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Novembre</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Décembre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$45:$N$45</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Notification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$48:$N$48</c:f>
+              <c:numCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="110438656"/>
+        <c:axId val="110444544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110438656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110444544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110444544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:crossAx val="110438656"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ANT GSBDD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ant. GSBDD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$67:$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 3j / 96.80%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 3j / 3.20%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$68:$D$68</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Budget</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$G$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Budget</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$H$67:$I$67</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 3j / 96.49%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 3j / 3.51%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$H$68:$I$68</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Appro</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>APPRO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$M$67:$Nx$67</c:f>
+              <c:strCache>
+                <c:ptCount val="376"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 7j / 89.57%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 7j / 10.43%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$68:$N$68</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Fin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$C$88:$D$88</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 7j / 97.52%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; 7j / 2.48%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$C$89:$D$89</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Chorus formul.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$G$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$H$88:$I$88</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 10j / 91.84%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; à 10j / 8.16%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$H$89:$I$89</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PFAF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PFAF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Worksheet!$M$88:$N$88</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 14j / 97.42%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&gt; à 14j / 2.58%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Worksheet!$M$89:$N$89</c:f>
+              <c:numCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins footer="0.3" header="0.3" r="0.7" l="0.7" t="0.75" b="0.75"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -753,7 +4437,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -779,13 +4463,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -802,6 +4486,454 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 3" id="3075"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 4" id="4100"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 5" id="5125"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 6" id="6150"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 7" id="7175"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 8" id="8200"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 9" id="9225"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 10" id="10250"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 11" id="11275"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 12" id="12300"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 13" id="13325"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 14" id="14350"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 15" id="15375"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr name="Chart 16" id="16400"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1100,10 +5232,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B23" sqref="B23:O26"/>
+      <selection activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1131,362 +5263,1365 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
     <row r="3" spans="1:17">
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>112</v>
-      </c>
-      <c r="D4" s="5">
-        <v>161</v>
-      </c>
-      <c r="E4" s="5">
-        <v>218</v>
-      </c>
-      <c r="F4" s="5">
-        <v>127</v>
-      </c>
-      <c r="G4" s="5">
-        <v>133</v>
-      </c>
-      <c r="H4" s="5">
-        <v>210</v>
-      </c>
-      <c r="I4" s="5">
-        <v>177</v>
-      </c>
-      <c r="J4" s="5">
-        <v>84</v>
-      </c>
-      <c r="K4" s="5">
-        <v>120</v>
-      </c>
-      <c r="L4" s="5">
-        <v>229</v>
-      </c>
-      <c r="M4" s="5">
-        <v>166</v>
-      </c>
-      <c r="N4" s="5">
-        <v>192</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>142.0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>172.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>165.0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>42.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O4" s="6">
         <f>SUM(C4:N4)</f>
-        <v>1929</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>71</v>
-      </c>
-      <c r="D5" s="6">
-        <v>117</v>
-      </c>
-      <c r="E5" s="6">
-        <v>140</v>
-      </c>
-      <c r="F5" s="6">
-        <v>110</v>
-      </c>
-      <c r="G5" s="6">
-        <v>101</v>
-      </c>
-      <c r="H5" s="6">
-        <v>141</v>
-      </c>
-      <c r="I5" s="6">
-        <v>117</v>
-      </c>
-      <c r="J5" s="6">
-        <v>83</v>
-      </c>
-      <c r="K5" s="6">
-        <v>109</v>
-      </c>
-      <c r="L5" s="6">
-        <v>132</v>
-      </c>
-      <c r="M5" s="6">
-        <v>121</v>
-      </c>
-      <c r="N5" s="6">
-        <v>163</v>
-      </c>
-      <c r="O5" s="6">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>83.0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>156.0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>173.0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="5">
         <f>SUM(C5:N5)</f>
-        <v>1405</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7">
-        <v>183</v>
-      </c>
-      <c r="D6" s="7">
-        <v>278</v>
-      </c>
-      <c r="E6" s="7">
-        <v>358</v>
-      </c>
-      <c r="F6" s="7">
-        <v>237</v>
-      </c>
-      <c r="G6" s="7">
-        <v>234</v>
-      </c>
-      <c r="H6" s="7">
-        <v>351</v>
-      </c>
-      <c r="I6" s="7">
-        <v>294</v>
-      </c>
-      <c r="J6" s="7">
-        <v>167</v>
-      </c>
-      <c r="K6" s="7">
-        <v>229</v>
-      </c>
-      <c r="L6" s="7">
-        <v>361</v>
-      </c>
-      <c r="M6" s="7">
-        <v>287</v>
-      </c>
-      <c r="N6" s="7">
-        <v>355</v>
-      </c>
-      <c r="O6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>225.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>328.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>338.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>77.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="2">
         <f>SUM(C6:N6)</f>
-        <v>3334</v>
+        <v>968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>469670.7</v>
+      </c>
+      <c r="D22" s="6">
+        <v>703184.55</v>
+      </c>
+      <c r="E22" s="6">
+        <v>677248.21</v>
+      </c>
+      <c r="F22" s="6">
+        <v>242280.38</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="6">
+        <f>SUM(C22:N22)</f>
+        <v>2092383.84</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>574071.03</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3196425.34</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5327326.16</v>
+      </c>
+      <c r="F23" s="5">
+        <v>355189.0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="5">
+        <f>SUM(C23:N23)</f>
+        <v>9453011.53</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="B24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5">
-        <v>345026.25</v>
-      </c>
-      <c r="D24" s="5">
-        <v>925640.14</v>
-      </c>
-      <c r="E24" s="5">
-        <v>858220.17</v>
-      </c>
-      <c r="F24" s="5">
-        <v>620145.74</v>
-      </c>
-      <c r="G24" s="5">
-        <v>761864.77</v>
-      </c>
-      <c r="H24" s="5">
-        <v>823575.26</v>
-      </c>
-      <c r="I24" s="5">
-        <v>1184438.15</v>
-      </c>
-      <c r="J24" s="5">
-        <v>409003.9</v>
-      </c>
-      <c r="K24" s="5">
-        <v>613976.15</v>
-      </c>
-      <c r="L24" s="5">
-        <v>1442599.94</v>
-      </c>
-      <c r="M24" s="5">
-        <v>963762.3</v>
-      </c>
-      <c r="N24" s="5">
-        <v>1283112.87</v>
-      </c>
-      <c r="O24" s="5">
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1043741.73</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3899609.89</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6004574.37</v>
+      </c>
+      <c r="F24" s="2">
+        <v>597469.38</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="2">
         <f>SUM(C24:N24)</f>
-        <v>10231365.64</v>
+        <v>11545395.37</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="B25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>868961.6</v>
-      </c>
-      <c r="D25" s="6">
-        <v>3689067.97</v>
-      </c>
-      <c r="E25" s="6">
-        <v>7492687.61</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1839412.42</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1153955.55</v>
-      </c>
-      <c r="H25" s="6">
-        <v>5424673.81</v>
-      </c>
-      <c r="I25" s="6">
-        <v>3761686.58</v>
-      </c>
-      <c r="J25" s="6">
-        <v>3174432.78</v>
-      </c>
-      <c r="K25" s="6">
-        <v>6113363.39</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1477638.32</v>
-      </c>
-      <c r="M25" s="6">
-        <v>2231035.98</v>
-      </c>
-      <c r="N25" s="6">
-        <v>12857910.21</v>
-      </c>
-      <c r="O25" s="6">
-        <f>SUM(C25:N25)</f>
-        <v>50084826.22</v>
-      </c>
+    <row r="40" spans="1:17">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
     </row>
-    <row r="26" spans="1:17">
-      <c r="B26" s="2" t="s">
+    <row r="42" spans="1:17">
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.29</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0.2725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="B45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.54</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3.31</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.56</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0.4075</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4.11</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="F46" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1.5108333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="B47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1.93</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0.38166666666667</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="B48" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="5">
+        <v>7.07</v>
+      </c>
+      <c r="D48" s="5">
+        <v>5.03</v>
+      </c>
+      <c r="E48" s="5">
+        <v>4.53</v>
+      </c>
+      <c r="F48" s="5">
+        <v>6.08</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <v>1.8925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="B49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7.07</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5.03</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4.54</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>1.8933333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="B50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="D50" s="2">
+        <v>5.62</v>
+      </c>
+      <c r="E50" s="2">
+        <v>4.99</v>
+      </c>
+      <c r="F50" s="2">
+        <v>6.27</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>2.0275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="B51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="D51" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="B67" s="2"/>
+      <c r="C67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="B68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="6">
+        <v>937</v>
+      </c>
+      <c r="D68" s="5">
+        <v>31</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H68" s="6">
+        <v>934</v>
+      </c>
+      <c r="I68" s="5">
+        <v>34</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="6">
+        <v>867</v>
+      </c>
+      <c r="N68" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="B88" s="2"/>
+      <c r="C88" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L88" s="2"/>
+      <c r="M88" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="B89" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" s="6">
+        <v>944</v>
+      </c>
+      <c r="D89" s="5">
+        <v>24</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" s="6">
+        <v>889</v>
+      </c>
+      <c r="I89" s="5">
+        <v>79</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M89" s="6">
+        <v>943</v>
+      </c>
+      <c r="N89" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="B109" s="2"/>
+      <c r="C109" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="B110" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" s="6">
+        <v>924</v>
+      </c>
+      <c r="D110" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="7">
-        <v>1213987.85</v>
-      </c>
-      <c r="D26" s="7">
-        <v>4614708.11</v>
-      </c>
-      <c r="E26" s="7">
-        <v>8350907.78</v>
-      </c>
-      <c r="F26" s="7">
-        <v>2459558.16</v>
-      </c>
-      <c r="G26" s="7">
-        <v>1915820.32</v>
-      </c>
-      <c r="H26" s="7">
-        <v>6248249.07</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4946124.73</v>
-      </c>
-      <c r="J26" s="7">
-        <v>3583436.68</v>
-      </c>
-      <c r="K26" s="7">
-        <v>6727339.54</v>
-      </c>
-      <c r="L26" s="7">
-        <v>2920238.26</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3194798.28</v>
-      </c>
-      <c r="N26" s="7">
-        <v>14141023.08</v>
-      </c>
-      <c r="O26" s="7">
-        <f>SUM(C26:N26)</f>
-        <v>60316191.86</v>
+      <c r="E131" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="B132" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E132" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="B133" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="B134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="B135" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="B136" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="B140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M140" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N140" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O140" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="B141" s="6">
+        <v>198</v>
+      </c>
+      <c r="C141" s="5">
+        <v>93</v>
+      </c>
+      <c r="D141" s="7">
+        <v>0</v>
+      </c>
+      <c r="E141" s="8">
+        <v>0</v>
+      </c>
+      <c r="G141" s="6">
+        <v>182</v>
+      </c>
+      <c r="H141" s="5">
+        <v>189</v>
+      </c>
+      <c r="I141" s="7">
+        <v>0</v>
+      </c>
+      <c r="J141" s="9">
+        <v>0</v>
+      </c>
+      <c r="L141" s="6">
+        <v>380</v>
+      </c>
+      <c r="M141" s="5">
+        <v>282</v>
+      </c>
+      <c r="N141" s="7">
+        <v>0</v>
+      </c>
+      <c r="O141" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="B160" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1508267.66</v>
+      </c>
+      <c r="E161" s="2">
+        <v>72.08</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" s="2">
+        <v>376</v>
+      </c>
+      <c r="E162" s="2">
+        <v>72.17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="B165" t="s">
+        <v>70</v>
+      </c>
+      <c r="I165" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="C166" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D166" s="6">
+        <v>480215</v>
+      </c>
+      <c r="E166" s="5">
+        <v>294376</v>
+      </c>
+      <c r="F166" s="7">
+        <v>96784</v>
+      </c>
+      <c r="G166" s="8">
+        <v>55857</v>
+      </c>
+      <c r="H166" s="10">
+        <v>44131</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K166" s="6">
+        <v>127</v>
+      </c>
+      <c r="L166" s="5">
+        <v>47</v>
+      </c>
+      <c r="M166" s="7">
+        <v>21</v>
+      </c>
+      <c r="N166" s="8">
+        <v>12</v>
+      </c>
+      <c r="O166" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="C167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" s="6">
+        <v>29</v>
+      </c>
+      <c r="E167" s="5">
+        <v>56</v>
+      </c>
+      <c r="F167" s="7">
+        <v>92</v>
+      </c>
+      <c r="G167" s="8">
+        <v>31</v>
+      </c>
+      <c r="H167" s="10">
+        <v>35</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K167" s="6">
+        <v>29</v>
+      </c>
+      <c r="L167" s="5">
+        <v>56</v>
+      </c>
+      <c r="M167" s="7">
+        <v>92</v>
+      </c>
+      <c r="N167" s="8">
+        <v>69</v>
+      </c>
+      <c r="O167" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="B186" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C186" s="6">
+        <v>144</v>
+      </c>
+      <c r="D186" s="6">
+        <v>213</v>
+      </c>
+      <c r="E186" s="6">
+        <v>226</v>
+      </c>
+      <c r="F186" s="6">
+        <v>51</v>
+      </c>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6">
+        <f>SUM(C186:N186)</f>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
+      <c r="B187" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C187" s="2">
+        <v>73.4266</v>
+      </c>
+      <c r="D187" s="2">
+        <v>74.5665</v>
+      </c>
+      <c r="E187" s="2">
+        <v>69.0909</v>
+      </c>
+      <c r="F187" s="2">
+        <v>66.6667</v>
+      </c>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2">
+        <f>SUM(C187:N187) / 12</f>
+        <v>23.645891666667</v>
       </c>
     </row>
   </sheetData>

--- a/public/nom_de_fichier.xlsx
+++ b/public/nom_de_fichier.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
-  <si>
-    <t xml:space="preserve">Activités appro en volume/valeur </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+  <si>
+    <t>COMPTE RENDU ANNUEL</t>
   </si>
   <si>
     <t>Volume</t>
@@ -74,6 +74,9 @@
     <t>Valeur (HT)</t>
   </si>
   <si>
+    <t>Dossiers inférieurs à 2 000,00 € TTC</t>
+  </si>
+  <si>
     <t>MPPA (Année Précédente)</t>
   </si>
   <si>
@@ -107,6 +110,51 @@
     <t>PFAF</t>
   </si>
   <si>
+    <t>Activités appro délais</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>MOYENNE</t>
+  </si>
+  <si>
+    <t>MPPA</t>
+  </si>
+  <si>
+    <t>MABC</t>
+  </si>
+  <si>
+    <t>TOTAUX</t>
+  </si>
+  <si>
+    <t>Montant des MPPA</t>
+  </si>
+  <si>
+    <t>Montant des MABC</t>
+  </si>
+  <si>
+    <t>Montant des MABC + MPPA</t>
+  </si>
+  <si>
+    <t>MPPA PME</t>
+  </si>
+  <si>
+    <t>TOP PME VALEUR</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>% PME</t>
+  </si>
+  <si>
+    <t>TOP PME VOLUME</t>
+  </si>
+  <si>
     <t>Chorus formul.</t>
   </si>
   <si>
@@ -116,64 +164,58 @@
     <t>Ant. GSBDD</t>
   </si>
   <si>
-    <t>&lt;= 3j / 96.80%</t>
-  </si>
-  <si>
-    <t>&gt; 3j / 3.20%</t>
+    <t>&lt;= 3j / 95.65%</t>
+  </si>
+  <si>
+    <t>&gt; 3j / 4.35%</t>
   </si>
   <si>
     <t>Budget</t>
   </si>
   <si>
-    <t>&lt;= 3j / 96.49%</t>
-  </si>
-  <si>
-    <t>&gt; 3j / 3.51%</t>
-  </si>
-  <si>
-    <t>&lt;= 7j / 89.57%</t>
-  </si>
-  <si>
-    <t>&gt; 7j / 10.43%</t>
+    <t>&lt;= 3j / 91.90%</t>
+  </si>
+  <si>
+    <t>&gt; 3j / 8.10%</t>
+  </si>
+  <si>
+    <t>&lt;= 7j / 64.97%</t>
+  </si>
+  <si>
+    <t>&gt; 7j / 35.03%</t>
   </si>
   <si>
     <t>Fin</t>
   </si>
   <si>
-    <t>&lt; 7j / 97.62%</t>
-  </si>
-  <si>
-    <t>&gt; 7j / 2.38%</t>
-  </si>
-  <si>
-    <t>&lt;= 10j / 91.94%</t>
-  </si>
-  <si>
-    <t>&gt; à 10j / 8.06%</t>
-  </si>
-  <si>
-    <t>&lt;= 14j / 97.42%</t>
-  </si>
-  <si>
-    <t>&gt; à 14j / 2.58%</t>
+    <t>&lt; 7j / 94.51%</t>
+  </si>
+  <si>
+    <t>&gt; 7j / 5.49%</t>
+  </si>
+  <si>
+    <t>&lt;= 10j / 69.20%</t>
+  </si>
+  <si>
+    <t>&gt; à 10j / 30.80%</t>
+  </si>
+  <si>
+    <t>&lt;= 14j / 89.89%</t>
+  </si>
+  <si>
+    <t>&gt; à 14j / 10.11%</t>
   </si>
   <si>
     <t>Délai total</t>
   </si>
   <si>
-    <t>&lt;= 15j / 95.45%</t>
-  </si>
-  <si>
-    <t>&gt; à 15j / 4.55%</t>
-  </si>
-  <si>
-    <t>VALEUR</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>MOYENNE</t>
+    <t>&lt;= 15j / 85.09%</t>
+  </si>
+  <si>
+    <t>&gt; à 15j / 14.91%</t>
+  </si>
+  <si>
+    <t>Activités par type de marché</t>
   </si>
   <si>
     <t>% VALEUR</t>
@@ -182,21 +224,9 @@
     <t>% VOLUME</t>
   </si>
   <si>
-    <t>MPPA</t>
-  </si>
-  <si>
-    <t>MABC</t>
-  </si>
-  <si>
-    <t>TOTAUX</t>
-  </si>
-  <si>
     <t>X &lt;= 1500</t>
   </si>
   <si>
-    <t>Montant des MPPA</t>
-  </si>
-  <si>
     <t>1500 &lt; X &lt;=4000</t>
   </si>
   <si>
@@ -206,30 +236,12 @@
     <t xml:space="preserve">X &gt; </t>
   </si>
   <si>
-    <t>Montant des MABC</t>
-  </si>
-  <si>
-    <t>Montant des MABC + MPPA</t>
-  </si>
-  <si>
-    <t>MPPA PME</t>
-  </si>
-  <si>
-    <t>TOP PME VALEUR</t>
-  </si>
-  <si>
-    <t>PME</t>
+    <t>Activités des PME</t>
   </si>
   <si>
     <t>DEPARTEMENT</t>
   </si>
   <si>
-    <t>% PME</t>
-  </si>
-  <si>
-    <t>TOP PME VOLUME</t>
-  </si>
-  <si>
     <t>VOLUME</t>
   </si>
   <si>
@@ -237,15 +249,6 @@
   </si>
   <si>
     <t>% MPPA</t>
-  </si>
-  <si>
-    <t>Activités appro délais</t>
-  </si>
-  <si>
-    <t>Activités par type de marché</t>
-  </si>
-  <si>
-    <t>Activités des PME</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="18"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -326,27 +329,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -368,17 +356,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -499,40 +490,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>152</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,40 +553,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -625,40 +616,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>141</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>230</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>206</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>151</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -688,40 +679,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,17 +840,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$B$131</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
@@ -869,10 +849,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 15j / 95.45%</c:v>
+                  <c:v>&lt;= 15j / 85.09%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; à 15j / 4.55%</c:v>
+                  <c:v>&gt; à 15j / 14.91%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -883,10 +863,10 @@
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>924</c:v>
+                  <c:v>2837</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1014,10 +994,10 @@
               <c:numCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>198</c:v>
+                  <c:v>693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1151,10 +1131,10 @@
               <c:numCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>182</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1282,10 +1262,10 @@
               <c:numCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>380</c:v>
+                  <c:v>1337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>283</c:v>
+                  <c:v>881</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1413,7 +1393,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1503443</c:v>
+                  <c:v>7014508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1408,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1443,7 +1423,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>31561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1643,7 +1623,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>375</c:v>
+                  <c:v>1459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,6 +1632,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$187</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
@@ -1659,6 +1650,12 @@
           <c:val>
             <c:numRef>
               <c:f>Worksheet!$L$186</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1860,25 +1857,25 @@
                   <c:v>Mai</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>Juin</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>Juillet</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>Août</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>Septembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>Octobre</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>Novembre</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1889,40 +1886,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>143</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>226</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2050,11 +2047,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$B$16</c:f>
+              <c:f>Worksheet!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TOTAL (Année en cours)</c:v>
+                  <c:v>MPPA (Année en cours)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2108,44 +2105,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$C$16:$N$16</c:f>
+              <c:f>Worksheet!$C$14:$N$14</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1202529.02</c:v>
+                  <c:v>3427042.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6060197.41</c:v>
+                  <c:v>6560707.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11356380.16</c:v>
+                  <c:v>15062208.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12303574.95</c:v>
+                  <c:v>17140160.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12304806.95</c:v>
+                  <c:v>20053863.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12321654.95</c:v>
+                  <c:v>26269693.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12321654.95</c:v>
+                  <c:v>32591922.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12321654.95</c:v>
+                  <c:v>34953853.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12321654.95</c:v>
+                  <c:v>41459928.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12321654.95</c:v>
+                  <c:v>45792861</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12321654.95</c:v>
+                  <c:v>49071173.51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12321654.95</c:v>
+                  <c:v>61969650.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2156,11 +2153,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Worksheet!$B$19</c:f>
+              <c:f>Worksheet!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TOTAL (Année Précédente)</c:v>
+                  <c:v>MPPA (Année Précédente)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2170,44 +2167,44 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$C$19:$N$19</c:f>
+              <c:f>Worksheet!$C$17:$N$17</c:f>
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3427042.87</c:v>
+                  <c:v>1321328.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6560707.63</c:v>
+                  <c:v>3408628.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15062208.99</c:v>
+                  <c:v>5913110.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17140160.68</c:v>
+                  <c:v>7607418.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20053863.04</c:v>
+                  <c:v>10888571.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26269693.94</c:v>
+                  <c:v>14512085.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32591922.51</c:v>
+                  <c:v>25615021.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34953853.13</c:v>
+                  <c:v>28223412.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41459928.74</c:v>
+                  <c:v>31072730.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45792861</c:v>
+                  <c:v>34100831.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49071173.51</c:v>
+                  <c:v>38781150.42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61969650.7</c:v>
+                  <c:v>42881828.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2402,40 +2399,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.54</c:v>
+                  <c:v>2.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.31</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3.67</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.98</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2465,40 +2462,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7.05</c:v>
+                  <c:v>9.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.03</c:v>
+                  <c:v>9.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.53</c:v>
+                  <c:v>10.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.08</c:v>
+                  <c:v>8.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.09</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.66</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>8.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2645,10 +2642,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 3j / 96.80%</c:v>
+                  <c:v>&lt;= 3j / 95.65%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; 3j / 3.20%</c:v>
+                  <c:v>&gt; 3j / 4.35%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2659,10 +2656,10 @@
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>937</c:v>
+                  <c:v>3189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2770,10 +2767,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 3j / 96.49%</c:v>
+                  <c:v>&lt;= 3j / 91.90%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; 3j / 3.51%</c:v>
+                  <c:v>&gt; 3j / 8.10%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2784,10 +2781,10 @@
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>934</c:v>
+                  <c:v>3064</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2895,10 +2892,10 @@
               <c:strCache>
                 <c:ptCount val="376"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 7j / 89.57%</c:v>
+                  <c:v>&lt;= 7j / 64.97%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; 7j / 10.43%</c:v>
+                  <c:v>&gt; 7j / 35.03%</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v/>
@@ -4031,10 +4028,10 @@
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>867</c:v>
+                  <c:v>2166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101</c:v>
+                  <c:v>1168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4122,17 +4119,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$B$110</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
@@ -4142,10 +4128,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt; 7j / 97.62%</c:v>
+                  <c:v>&lt; 7j / 94.51%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; 7j / 2.38%</c:v>
+                  <c:v>&gt; 7j / 5.49%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4156,10 +4142,10 @@
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>945</c:v>
+                  <c:v>3151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4247,17 +4233,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Worksheet!$G$110</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
@@ -4267,10 +4242,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 10j / 91.94%</c:v>
+                  <c:v>&lt;= 10j / 69.20%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; à 10j / 8.06%</c:v>
+                  <c:v>&gt; à 10j / 30.80%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4281,10 +4256,10 @@
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>890</c:v>
+                  <c:v>2307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>1027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4392,10 +4367,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 14j / 97.42%</c:v>
+                  <c:v>&lt;= 14j / 89.89%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; à 14j / 2.58%</c:v>
+                  <c:v>&gt; à 14j / 10.11%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4406,10 +4381,10 @@
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>943</c:v>
+                  <c:v>2997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4460,13 +4435,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4492,13 +4467,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5340,1498 +5315,2170 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
-        <v>152.0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>174.0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>183.0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>53.0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0.0</v>
+      <c r="C4" s="3">
+        <v>134.0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>160.0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>231.0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>125.0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>151.0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>212.0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>170.0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>93.0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>141.0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>230.0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>206.0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>151.0</v>
       </c>
       <c r="O4" s="2">
         <f>SUM(C4:N4)</f>
-        <v>566</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
-        <v>104.0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>165.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>180.0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>42.0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>12.0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>0.0</v>
+      <c r="C5" s="4">
+        <v>103.0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>116.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>138.0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>103.0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>131.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>117.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>124.0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>99.0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>112.0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>127.0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>146.0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>130.0</v>
       </c>
       <c r="O5" s="2">
         <f>SUM(C5:N5)</f>
-        <v>503</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
-        <v>256.0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>339.0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>363.0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>95.0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>15.0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0.0</v>
+      <c r="C6" s="5">
+        <v>237.0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>276.0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>369.0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>228.0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>282.0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>329.0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>294.0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>192.0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>253.0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>357.0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>352.0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>281.0</v>
       </c>
       <c r="O6" s="2">
         <f>SUM(C6:N6)</f>
-        <v>1069</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="6">
+        <v>120.0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>138.0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>236.0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>205.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>227.0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>206.0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>160.0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>99.0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>159.0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>215.0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>208.0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>210.0</v>
+      </c>
+      <c r="O7">
+        <f>SUM(C7:N7)</f>
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7">
+        <v>107.0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>152.0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>192.0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>148.0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>174.0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>139.0</v>
+      </c>
+      <c r="M8" s="7">
         <v>134.0</v>
       </c>
-      <c r="D7" s="7">
-        <v>160.0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>231.0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>125.0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>151.0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>212.0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>170.0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>93.0</v>
-      </c>
-      <c r="K7" s="7">
-        <v>141.0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>230.0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>206.0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>151.0</v>
-      </c>
-      <c r="O7" s="2">
-        <f>SUM(C7:N7)</f>
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8">
+      <c r="N8" s="7">
         <v>103.0</v>
       </c>
-      <c r="D8" s="8">
-        <v>116.0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>138.0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>103.0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>131.0</v>
-      </c>
-      <c r="H8" s="8">
-        <v>117.0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>124.0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>99.0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>112.0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>127.0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>146.0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>130.0</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="O8">
         <f>SUM(C8:N8)</f>
-        <v>1446</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9">
-        <v>237.0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>276.0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>369.0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>228.0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>282.0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>329.0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>294.0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>192.0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>253.0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>357.0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>352.0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>281.0</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8">
+        <v>227.0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>243.0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>388.0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>309.0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>419.0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>354.0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>262.0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>176.0</v>
+      </c>
+      <c r="K9" s="8">
+        <v>333.0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>354.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>342.0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>313.0</v>
+      </c>
+      <c r="O9">
         <f>SUM(C9:N9)</f>
-        <v>3450</v>
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>573434.82</v>
+      </c>
+      <c r="D12" s="3">
+        <v>745787.03</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1017141.82</v>
+      </c>
+      <c r="F12" s="3">
+        <v>563515.61</v>
+      </c>
+      <c r="G12" s="3">
+        <v>809312.02</v>
+      </c>
+      <c r="H12" s="3">
+        <v>804991.44</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1430406.73</v>
+      </c>
+      <c r="J12" s="3">
+        <v>396459.44</v>
+      </c>
+      <c r="K12" s="3">
+        <v>729066.96</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1531842.53</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1089886.45</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1029487.17</v>
+      </c>
+      <c r="O12" s="2">
+        <f>SUM(C12:N12)</f>
+        <v>10721332.02</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2853608.05</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2387877.73</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7484359.54</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1514436.08</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2104390.34</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5410839.46</v>
+      </c>
+      <c r="I13" s="4">
+        <v>4891821.84</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1965471.18</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5777008.65</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2801089.73</v>
+      </c>
+      <c r="M13" s="4">
+        <v>2188426.06</v>
+      </c>
+      <c r="N13" s="4">
+        <v>11868990.02</v>
+      </c>
+      <c r="O13" s="2">
+        <f>SUM(C13:N13)</f>
+        <v>51248318.68</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4">
-        <v>562465.35</v>
-      </c>
-      <c r="D14" s="4">
-        <v>725052.7</v>
-      </c>
-      <c r="E14" s="4">
-        <v>661291.77</v>
-      </c>
-      <c r="F14" s="4">
-        <v>374227.89</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1232.0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>369.0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0.0</v>
+        <v>4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3427042.87</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6560707.63</v>
+      </c>
+      <c r="E14" s="5">
+        <v>15062208.99</v>
+      </c>
+      <c r="F14" s="5">
+        <v>17140160.68</v>
+      </c>
+      <c r="G14" s="5">
+        <v>20053863.04</v>
+      </c>
+      <c r="H14" s="5">
+        <v>26269693.94</v>
+      </c>
+      <c r="I14" s="5">
+        <v>32591922.51</v>
+      </c>
+      <c r="J14" s="5">
+        <v>34953853.13</v>
+      </c>
+      <c r="K14" s="5">
+        <v>41459928.74</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45792861.0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>49071173.51</v>
+      </c>
+      <c r="N14" s="5">
+        <v>61969650.7</v>
       </c>
       <c r="O14" s="2">
         <f>SUM(C14:N14)</f>
-        <v>2324638.71</v>
+        <v>354353066.74</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5">
-        <v>640063.67</v>
-      </c>
-      <c r="D15" s="5">
-        <v>4132615.69</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4634890.98</v>
-      </c>
-      <c r="F15" s="5">
-        <v>572966.9</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>16479.0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6">
+        <v>312452.75</v>
+      </c>
+      <c r="D15" s="6">
+        <v>557343.77</v>
+      </c>
+      <c r="E15" s="6">
+        <v>982521.22</v>
+      </c>
+      <c r="F15" s="6">
+        <v>842191.86</v>
+      </c>
+      <c r="G15" s="6">
+        <v>729838.13</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1035253.76</v>
+      </c>
+      <c r="I15" s="6">
+        <v>726859.11</v>
+      </c>
+      <c r="J15" s="6">
+        <v>452202.63</v>
+      </c>
+      <c r="K15" s="6">
+        <v>618165.94</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1062671.69</v>
+      </c>
+      <c r="M15" s="6">
+        <v>822340.52</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1187753.03</v>
+      </c>
+      <c r="O15">
         <f>SUM(C15:N15)</f>
-        <v>9997016.24</v>
+        <v>9329594.41</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1202529.02</v>
-      </c>
-      <c r="D16" s="6">
-        <v>6060197.41</v>
-      </c>
-      <c r="E16" s="6">
-        <v>11356380.16</v>
-      </c>
-      <c r="F16" s="6">
-        <v>12303574.95</v>
-      </c>
-      <c r="G16" s="6">
-        <v>12304806.95</v>
-      </c>
-      <c r="H16" s="6">
-        <v>12321654.95</v>
-      </c>
-      <c r="I16" s="6">
-        <v>12321654.95</v>
-      </c>
-      <c r="J16" s="6">
-        <v>12321654.95</v>
-      </c>
-      <c r="K16" s="6">
-        <v>12321654.95</v>
-      </c>
-      <c r="L16" s="6">
-        <v>12321654.95</v>
-      </c>
-      <c r="M16" s="6">
-        <v>12321654.95</v>
-      </c>
-      <c r="N16" s="6">
-        <v>12321654.95</v>
-      </c>
-      <c r="O16" s="2">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1008875.94</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1529955.59</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1521960.8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>852116.53</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2551315.12</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2588259.65</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10376077.28</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2156187.92</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2231152.02</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1965429.61</v>
+      </c>
+      <c r="M16" s="7">
+        <v>3857978.58</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2912924.86</v>
+      </c>
+      <c r="O16">
         <f>SUM(C16:N16)</f>
-        <v>129479073.14</v>
+        <v>33552233.9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7">
-        <v>573434.82</v>
-      </c>
-      <c r="D17" s="7">
-        <v>745787.03</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1017141.82</v>
-      </c>
-      <c r="F17" s="7">
-        <v>563515.61</v>
-      </c>
-      <c r="G17" s="7">
-        <v>809312.02</v>
-      </c>
-      <c r="H17" s="7">
-        <v>804991.44</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1430406.73</v>
-      </c>
-      <c r="J17" s="7">
-        <v>396459.44</v>
-      </c>
-      <c r="K17" s="7">
-        <v>729066.96</v>
-      </c>
-      <c r="L17" s="7">
-        <v>1531842.53</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1089886.45</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1029487.17</v>
-      </c>
-      <c r="O17" s="2">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1321328.69</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3408628.05</v>
+      </c>
+      <c r="E17" s="8">
+        <v>5913110.07</v>
+      </c>
+      <c r="F17" s="8">
+        <v>7607418.46</v>
+      </c>
+      <c r="G17" s="8">
+        <v>10888571.71</v>
+      </c>
+      <c r="H17" s="8">
+        <v>14512085.12</v>
+      </c>
+      <c r="I17" s="8">
+        <v>25615021.51</v>
+      </c>
+      <c r="J17" s="8">
+        <v>28223412.06</v>
+      </c>
+      <c r="K17" s="8">
+        <v>31072730.02</v>
+      </c>
+      <c r="L17" s="8">
+        <v>34100831.32</v>
+      </c>
+      <c r="M17" s="8">
+        <v>38781150.42</v>
+      </c>
+      <c r="N17" s="8">
+        <v>42881828.31</v>
+      </c>
+      <c r="O17">
         <f>SUM(C17:N17)</f>
-        <v>10721332.02</v>
+        <v>244326115.74</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2853608.05</v>
-      </c>
-      <c r="D18" s="8">
-        <v>2387877.73</v>
-      </c>
-      <c r="E18" s="8">
-        <v>7484359.54</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1514436.08</v>
-      </c>
-      <c r="G18" s="8">
-        <v>2104390.34</v>
-      </c>
-      <c r="H18" s="8">
-        <v>5410839.46</v>
-      </c>
-      <c r="I18" s="8">
-        <v>4891821.84</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1965471.18</v>
-      </c>
-      <c r="K18" s="8">
-        <v>5777008.65</v>
-      </c>
-      <c r="L18" s="8">
-        <v>2801089.73</v>
-      </c>
-      <c r="M18" s="8">
-        <v>2188426.06</v>
-      </c>
-      <c r="N18" s="8">
-        <v>11868990.02</v>
-      </c>
-      <c r="O18" s="2">
-        <f>SUM(C18:N18)</f>
-        <v>51248318.68</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3427042.87</v>
-      </c>
-      <c r="D19" s="9">
-        <v>6560707.63</v>
-      </c>
-      <c r="E19" s="9">
-        <v>15062208.99</v>
-      </c>
-      <c r="F19" s="9">
-        <v>17140160.68</v>
-      </c>
-      <c r="G19" s="9">
-        <v>20053863.04</v>
-      </c>
-      <c r="H19" s="9">
-        <v>26269693.94</v>
-      </c>
-      <c r="I19" s="9">
-        <v>32591922.51</v>
-      </c>
-      <c r="J19" s="9">
-        <v>34953853.13</v>
-      </c>
-      <c r="K19" s="9">
-        <v>41459928.74</v>
-      </c>
-      <c r="L19" s="9">
-        <v>45792861.0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>49071173.51</v>
-      </c>
-      <c r="N19" s="9">
-        <v>61969650.7</v>
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3">
+        <v>82</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3">
+        <v>67</v>
+      </c>
+      <c r="H19" s="3">
+        <v>100</v>
+      </c>
+      <c r="I19" s="3">
+        <v>56</v>
+      </c>
+      <c r="J19" s="3">
+        <v>41</v>
+      </c>
+      <c r="K19" s="3">
+        <v>45</v>
+      </c>
+      <c r="L19" s="3">
+        <v>79</v>
+      </c>
+      <c r="M19" s="3">
+        <v>59</v>
+      </c>
+      <c r="N19" s="3">
+        <v>45</v>
       </c>
       <c r="O19" s="2">
         <f>SUM(C19:N19)</f>
-        <v>354353066.74</v>
-      </c>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4">
+        <v>52</v>
+      </c>
+      <c r="E20" s="4">
+        <v>78</v>
+      </c>
+      <c r="F20" s="4">
+        <v>46</v>
+      </c>
+      <c r="G20" s="4">
+        <v>56</v>
+      </c>
+      <c r="H20" s="4">
+        <v>58</v>
+      </c>
+      <c r="I20" s="4">
+        <v>46</v>
+      </c>
+      <c r="J20" s="4">
+        <v>42</v>
+      </c>
+      <c r="K20" s="4">
+        <v>60</v>
+      </c>
+      <c r="L20" s="4">
+        <v>73</v>
+      </c>
+      <c r="M20" s="4">
+        <v>71</v>
+      </c>
+      <c r="N20" s="4">
+        <v>53</v>
+      </c>
+      <c r="O20" s="2">
+        <f>SUM(C20:N20)</f>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>109</v>
+      </c>
+      <c r="D21" s="5">
+        <v>111</v>
+      </c>
+      <c r="E21" s="5">
+        <v>160</v>
+      </c>
+      <c r="F21" s="5">
+        <v>91</v>
+      </c>
+      <c r="G21" s="5">
+        <v>123</v>
+      </c>
+      <c r="H21" s="5">
+        <v>158</v>
+      </c>
+      <c r="I21" s="5">
+        <v>102</v>
+      </c>
+      <c r="J21" s="5">
+        <v>83</v>
+      </c>
+      <c r="K21" s="5">
+        <v>105</v>
+      </c>
+      <c r="L21" s="5">
+        <v>152</v>
+      </c>
+      <c r="M21" s="5">
+        <v>130</v>
+      </c>
+      <c r="N21" s="5">
+        <v>98</v>
+      </c>
+      <c r="O21" s="2">
+        <f>SUM(C21:N21)</f>
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9">
+        <v>65</v>
+      </c>
+      <c r="D22" s="9">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9">
+        <v>114</v>
+      </c>
+      <c r="F22" s="9">
+        <v>92</v>
+      </c>
+      <c r="G22" s="9">
+        <v>108</v>
+      </c>
+      <c r="H22" s="9">
+        <v>91</v>
+      </c>
+      <c r="I22" s="9">
+        <v>65</v>
+      </c>
+      <c r="J22" s="9">
+        <v>40</v>
+      </c>
+      <c r="K22" s="9">
+        <v>78</v>
+      </c>
+      <c r="L22" s="9">
+        <v>82</v>
+      </c>
+      <c r="M22" s="9">
+        <v>88</v>
+      </c>
+      <c r="N22" s="9">
+        <v>81</v>
+      </c>
+      <c r="O22" s="2">
+        <f>SUM(C22:N22)</f>
+        <v>976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="B23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="10">
+        <v>54</v>
+      </c>
+      <c r="D23" s="10">
+        <v>50</v>
+      </c>
+      <c r="E23" s="10">
+        <v>55</v>
+      </c>
+      <c r="F23" s="10">
+        <v>60</v>
+      </c>
+      <c r="G23" s="10">
+        <v>100</v>
+      </c>
+      <c r="H23" s="10">
+        <v>86</v>
+      </c>
+      <c r="I23" s="10">
+        <v>52</v>
+      </c>
+      <c r="J23" s="10">
+        <v>37</v>
+      </c>
+      <c r="K23" s="10">
+        <v>107</v>
+      </c>
+      <c r="L23" s="10">
+        <v>75</v>
+      </c>
+      <c r="M23" s="10">
+        <v>58</v>
+      </c>
+      <c r="N23" s="10">
+        <v>43</v>
+      </c>
+      <c r="O23" s="2">
+        <f>SUM(C23:N23)</f>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="11">
+        <v>119</v>
+      </c>
+      <c r="D24" s="11">
+        <v>122</v>
+      </c>
+      <c r="E24" s="11">
+        <v>169</v>
+      </c>
+      <c r="F24" s="11">
+        <v>152</v>
+      </c>
+      <c r="G24" s="11">
+        <v>208</v>
+      </c>
+      <c r="H24" s="11">
+        <v>177</v>
+      </c>
+      <c r="I24" s="11">
+        <v>117</v>
+      </c>
+      <c r="J24" s="11">
+        <v>77</v>
+      </c>
+      <c r="K24" s="11">
+        <v>185</v>
+      </c>
+      <c r="L24" s="11">
+        <v>157</v>
+      </c>
+      <c r="M24" s="11">
+        <v>146</v>
+      </c>
+      <c r="N24" s="11">
+        <v>124</v>
+      </c>
+      <c r="O24" s="2">
+        <f>SUM(C24:N24)</f>
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="H62" s="10" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="B64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="B65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="J65" s="2">
+        <v>2.03</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="N65" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="O65" s="2">
+        <v>0.9825</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="B66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2.05</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="I66" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="M66" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="N66" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="O66" s="2">
+        <v>1.185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="B67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1.13</v>
+      </c>
+      <c r="H67" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="I67" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="J67" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="K67" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="N67" s="2">
+        <v>2.55</v>
+      </c>
+      <c r="O67" s="2">
+        <v>2.1675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="B68" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="2">
+        <v>7.74</v>
+      </c>
+      <c r="D68" s="2">
+        <v>6.87</v>
+      </c>
+      <c r="E68" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="F68" s="2">
+        <v>7.88</v>
+      </c>
+      <c r="G68" s="2">
+        <v>12.37</v>
+      </c>
+      <c r="H68" s="2">
+        <v>7.21</v>
+      </c>
+      <c r="I68" s="2">
+        <v>6.36</v>
+      </c>
+      <c r="J68" s="2">
+        <v>7.07</v>
+      </c>
+      <c r="K68" s="2">
+        <v>5.38</v>
+      </c>
+      <c r="L68" s="2">
+        <v>5.63</v>
+      </c>
+      <c r="M68" s="2">
+        <v>5.83</v>
+      </c>
+      <c r="N68" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="O68" s="2">
+        <v>7.3083333333333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="B69" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2.02</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2.92</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2.13</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1.66</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="M69" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="N69" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1.545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="B70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="2">
+        <v>9.76</v>
+      </c>
+      <c r="D70" s="2">
+        <v>9.79</v>
+      </c>
+      <c r="E70" s="2">
+        <v>10.29</v>
+      </c>
+      <c r="F70" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="G70" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="H70" s="2">
+        <v>9.09</v>
+      </c>
+      <c r="I70" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="J70" s="2">
+        <v>7.32</v>
+      </c>
+      <c r="K70" s="2">
+        <v>7.04</v>
+      </c>
+      <c r="L70" s="2">
+        <v>6.66</v>
+      </c>
+      <c r="M70" s="2">
+        <v>7.43</v>
+      </c>
+      <c r="N70" s="2">
+        <v>8.69</v>
+      </c>
+      <c r="O70" s="2">
+        <v>8.8533333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="B71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="2">
+        <v>9.76</v>
+      </c>
+      <c r="D71" s="2">
+        <v>9.79</v>
+      </c>
+      <c r="E71" s="2">
+        <v>10.29</v>
+      </c>
+      <c r="F71" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="G71" s="2">
+        <v>13.21</v>
+      </c>
+      <c r="H71" s="2">
+        <v>9.09</v>
+      </c>
+      <c r="I71" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="J71" s="2">
+        <v>7.32</v>
+      </c>
+      <c r="K71" s="2">
+        <v>7.05</v>
+      </c>
+      <c r="L71" s="2">
+        <v>6.66</v>
+      </c>
+      <c r="M71" s="2">
+        <v>7.43</v>
+      </c>
+      <c r="N71" s="2">
+        <v>8.69</v>
+      </c>
+      <c r="O71" s="2">
+        <v>8.855</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72">
+        <v>11.81</v>
+      </c>
+      <c r="D72">
+        <v>10.75</v>
+      </c>
+      <c r="E72">
+        <v>11.05</v>
+      </c>
+      <c r="F72">
+        <v>9.83</v>
+      </c>
+      <c r="G72">
+        <v>13.81</v>
+      </c>
+      <c r="H72">
+        <v>10.67</v>
+      </c>
+      <c r="I72">
+        <v>10.15</v>
+      </c>
+      <c r="J72">
+        <v>8.96</v>
+      </c>
+      <c r="K72">
+        <v>8.34</v>
+      </c>
+      <c r="L72">
+        <v>7.25</v>
+      </c>
+      <c r="M72">
+        <v>8.1</v>
+      </c>
+      <c r="N72">
+        <v>9.76</v>
+      </c>
+      <c r="O72">
+        <v>10.04</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="B73" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73">
+        <v>12.3</v>
+      </c>
+      <c r="D73">
+        <v>11.2</v>
+      </c>
+      <c r="E73">
+        <v>11.7</v>
+      </c>
+      <c r="F73">
+        <v>10.7</v>
+      </c>
+      <c r="G73">
+        <v>14.3</v>
+      </c>
+      <c r="H73">
+        <v>11.2</v>
+      </c>
+      <c r="I73">
+        <v>11.5</v>
+      </c>
+      <c r="J73">
+        <v>11.0</v>
+      </c>
+      <c r="K73">
+        <v>10.0</v>
+      </c>
+      <c r="L73">
+        <v>8.2</v>
+      </c>
+      <c r="M73">
+        <v>8.8</v>
+      </c>
+      <c r="N73">
+        <v>11.2</v>
+      </c>
+      <c r="O73">
+        <v>11.008333333333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="C89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" t="s">
+        <v>50</v>
+      </c>
+      <c r="H89" t="s">
+        <v>52</v>
+      </c>
+      <c r="I89" t="s">
+        <v>53</v>
+      </c>
+      <c r="M89" t="s">
+        <v>54</v>
+      </c>
+      <c r="N89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="B90" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90">
+        <v>3189</v>
+      </c>
+      <c r="D90">
+        <v>145</v>
+      </c>
+      <c r="G90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H90">
+        <v>3064</v>
+      </c>
+      <c r="I90">
+        <v>270</v>
+      </c>
+      <c r="L90" t="s">
+        <v>27</v>
+      </c>
+      <c r="M90">
+        <v>2166</v>
+      </c>
+      <c r="N90">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="C110" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" t="s">
+        <v>58</v>
+      </c>
+      <c r="H110" t="s">
+        <v>59</v>
+      </c>
+      <c r="I110" t="s">
+        <v>60</v>
+      </c>
+      <c r="M110" t="s">
+        <v>61</v>
+      </c>
+      <c r="N110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="B111" t="s">
+        <v>56</v>
+      </c>
+      <c r="C111">
+        <v>3151</v>
+      </c>
+      <c r="D111">
+        <v>183</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111">
+        <v>2307</v>
+      </c>
+      <c r="I111">
+        <v>1027</v>
+      </c>
+      <c r="L111" t="s">
+        <v>30</v>
+      </c>
+      <c r="M111">
+        <v>2997</v>
+      </c>
+      <c r="N111">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="C131" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="B132" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132">
+        <v>2837</v>
+      </c>
+      <c r="D132">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="H151" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="B154" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2">
+        <v>50084826.22</v>
+      </c>
+      <c r="E154" s="2">
+        <v>60316191.86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="B155" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1929</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1405</v>
+      </c>
+      <c r="E155" s="2">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="B156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="2">
+        <v>5303.97</v>
+      </c>
+      <c r="D156" s="2">
+        <v>35647.56</v>
+      </c>
+      <c r="E156" s="2">
+        <v>40951.53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="B157" t="s">
+        <v>67</v>
+      </c>
+      <c r="C157">
+        <v>16.96</v>
+      </c>
+      <c r="D157">
+        <v>83.04</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="B158" t="s">
+        <v>68</v>
+      </c>
+      <c r="C158">
+        <v>57.86</v>
+      </c>
+      <c r="D158">
+        <v>42.14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="B162" t="s">
+        <v>69</v>
+      </c>
+      <c r="C162" t="s">
+        <v>70</v>
+      </c>
+      <c r="D162" t="s">
+        <v>71</v>
+      </c>
+      <c r="E162" t="s">
+        <v>72</v>
+      </c>
+      <c r="G162" t="s">
+        <v>69</v>
+      </c>
+      <c r="H162" t="s">
+        <v>70</v>
+      </c>
+      <c r="I162" t="s">
+        <v>71</v>
+      </c>
+      <c r="J162" t="s">
+        <v>72</v>
+      </c>
+      <c r="L162" t="s">
+        <v>69</v>
+      </c>
+      <c r="M162" t="s">
+        <v>70</v>
+      </c>
+      <c r="N162" t="s">
+        <v>71</v>
+      </c>
+      <c r="O162" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="B163">
+        <v>693</v>
+      </c>
+      <c r="C163">
+        <v>616</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>644</v>
+      </c>
+      <c r="H163">
+        <v>265</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>1337</v>
+      </c>
+      <c r="M163">
+        <v>881</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17">
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181" spans="1:17">
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="H181" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17">
+      <c r="B182" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D183" s="2">
+        <v>7046068.58</v>
+      </c>
+      <c r="E183" s="2">
+        <v>68.87</v>
+      </c>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+    </row>
+    <row r="184" spans="1:17">
+      <c r="B184" s="2"/>
+      <c r="C184" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D184" s="2">
+        <v>1466</v>
+      </c>
+      <c r="E184" s="2">
+        <v>76.0</v>
+      </c>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="1:17">
+      <c r="B185" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="I185" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="C186" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186">
+        <v>7014508</v>
+      </c>
+      <c r="E186">
+        <v>31561</v>
+      </c>
+      <c r="J186" t="s">
+        <v>75</v>
+      </c>
+      <c r="K186">
+        <v>1459</v>
+      </c>
+      <c r="L186">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
+      <c r="C187" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="B64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="D187"/>
+      <c r="E187">
+        <v>35</v>
+      </c>
+      <c r="J187" t="s">
+        <v>74</v>
+      </c>
+      <c r="K187"/>
+      <c r="L187">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17">
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2"/>
+      <c r="K205" s="2"/>
+      <c r="L205" s="2"/>
+      <c r="M205" s="2"/>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
+    </row>
+    <row r="206" spans="1:17">
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2"/>
+      <c r="K206" s="2"/>
+      <c r="L206" s="2"/>
+      <c r="M206" s="2"/>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
+    </row>
+    <row r="207" spans="1:17">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D207" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E207" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F207" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G207" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="H207" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I207" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J207" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K207" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="L207" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M64" s="3" t="s">
+      <c r="M207" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N64" s="3" t="s">
+      <c r="N207" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O64" s="3" t="s">
+      <c r="O207" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
-      <c r="B65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="D65" s="3">
-        <v>2.72</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0.29</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0</v>
-      </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
-      <c r="L65" s="3">
-        <v>0</v>
-      </c>
-      <c r="M65" s="3">
-        <v>0</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0</v>
-      </c>
-      <c r="O65" s="3">
-        <v>0.2725</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="B66" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0.38</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0.46</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0.19</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <v>0.135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="B67" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0.54</v>
-      </c>
-      <c r="D67" s="3">
-        <v>3.31</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0.56</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0.48</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I67" s="3">
-        <v>0</v>
-      </c>
-      <c r="J67" s="3">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
-      <c r="L67" s="3">
-        <v>0</v>
-      </c>
-      <c r="M67" s="3">
-        <v>0</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0</v>
-      </c>
-      <c r="O67" s="3">
-        <v>0.4075</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="B68" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="3">
-        <v>5.16</v>
-      </c>
-      <c r="D68" s="3">
-        <v>4.11</v>
-      </c>
-      <c r="E68" s="3">
-        <v>3.74</v>
-      </c>
-      <c r="F68" s="3">
-        <v>5.14</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I68" s="3">
-        <v>0</v>
-      </c>
-      <c r="J68" s="3">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
-      </c>
-      <c r="L68" s="3">
-        <v>0</v>
-      </c>
-      <c r="M68" s="3">
-        <v>0</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0</v>
-      </c>
-      <c r="O68" s="3">
-        <v>1.5125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="B69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1.89</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0.92</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0.79</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0.94</v>
-      </c>
-      <c r="G69" s="3">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I69" s="3">
-        <v>0</v>
-      </c>
-      <c r="J69" s="3">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
-      <c r="L69" s="3">
-        <v>0</v>
-      </c>
-      <c r="M69" s="3">
-        <v>0</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0</v>
-      </c>
-      <c r="O69" s="3">
-        <v>0.37833333333333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="B70" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" s="3">
-        <v>7.05</v>
-      </c>
-      <c r="D70" s="3">
-        <v>5.03</v>
-      </c>
-      <c r="E70" s="3">
-        <v>4.53</v>
-      </c>
-      <c r="F70" s="3">
-        <v>6.08</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>1.8908333333333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="B71" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="3">
-        <v>7.05</v>
-      </c>
-      <c r="D71" s="3">
-        <v>5.03</v>
-      </c>
-      <c r="E71" s="3">
-        <v>4.54</v>
-      </c>
-      <c r="F71" s="3">
-        <v>6.08</v>
-      </c>
-      <c r="G71" s="3">
-        <v>0</v>
-      </c>
-      <c r="H71" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I71" s="3">
-        <v>0</v>
-      </c>
-      <c r="J71" s="3">
-        <v>0</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0</v>
-      </c>
-      <c r="L71" s="3">
-        <v>0</v>
-      </c>
-      <c r="M71" s="3">
-        <v>0</v>
-      </c>
-      <c r="N71" s="3">
-        <v>0</v>
-      </c>
-      <c r="O71" s="3">
-        <v>1.8916666666667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="B72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="3">
-        <v>7.43</v>
-      </c>
-      <c r="D72" s="3">
-        <v>5.62</v>
-      </c>
-      <c r="E72" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="F72" s="3">
-        <v>6.27</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3">
-        <v>2.0258333333333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="B73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="D73" s="3">
-        <v>8.3</v>
-      </c>
-      <c r="E73" s="3">
-        <v>5.1</v>
-      </c>
-      <c r="F73" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="G73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="I73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="J73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="L73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="M73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="O73" s="3">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="B90" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C90" s="3">
-        <v>937</v>
-      </c>
-      <c r="D90" s="3">
-        <v>31</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" s="3">
-        <v>934</v>
-      </c>
-      <c r="I90" s="3">
-        <v>34</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M90" s="3">
-        <v>867</v>
-      </c>
-      <c r="N90" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N110" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="B111" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C111" s="3">
-        <v>945</v>
-      </c>
-      <c r="D111" s="3">
-        <v>23</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H111" s="3">
-        <v>890</v>
-      </c>
-      <c r="I111" s="3">
-        <v>78</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M111" s="3">
-        <v>943</v>
-      </c>
-      <c r="N111" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17">
-      <c r="B131" s="3"/>
-      <c r="C131" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17">
-      <c r="B132" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C132" s="3">
-        <v>924</v>
-      </c>
-      <c r="D132" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
-      <c r="H151" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17">
-      <c r="B153" s="3"/>
-      <c r="C153" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
-      <c r="B154" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E154" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
-      <c r="B155" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C155" s="3">
-        <v>0</v>
-      </c>
-      <c r="D155" s="3">
-        <v>0</v>
-      </c>
-      <c r="E155" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
-      <c r="B156" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17">
-      <c r="B157" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C157" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D157" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:17">
-      <c r="B158" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C158" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="D158" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="E158" s="3"/>
-    </row>
-    <row r="161" spans="1:17">
-      <c r="B161" s="3"/>
-      <c r="C161" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I161" s="3"/>
-      <c r="J161" s="3"/>
-      <c r="L161" s="3"/>
-      <c r="M161" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N161" s="3"/>
-      <c r="O161" s="3"/>
-    </row>
-    <row r="162" spans="1:17">
-      <c r="B162" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H162" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L162" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M162" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N162" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O162" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17">
-      <c r="B163" s="3">
-        <v>198</v>
-      </c>
-      <c r="C163" s="3">
-        <v>94</v>
-      </c>
-      <c r="D163" s="3">
-        <v>0</v>
-      </c>
-      <c r="E163" s="3">
-        <v>0</v>
-      </c>
-      <c r="G163" s="3">
-        <v>182</v>
-      </c>
-      <c r="H163" s="3">
-        <v>189</v>
-      </c>
-      <c r="I163" s="3">
-        <v>0</v>
-      </c>
-      <c r="J163" s="3">
-        <v>0</v>
-      </c>
-      <c r="L163" s="3">
-        <v>380</v>
-      </c>
-      <c r="M163" s="3">
-        <v>283</v>
-      </c>
-      <c r="N163" s="3">
-        <v>0</v>
-      </c>
-      <c r="O163" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17">
-      <c r="H181" s="10" t="s">
+    <row r="208" spans="1:17">
+      <c r="B208" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="182" spans="1:17">
-      <c r="B182" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="183" spans="1:17">
-      <c r="B183" s="3"/>
-      <c r="C183" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D183" s="3">
-        <v>1503442.66</v>
-      </c>
-      <c r="E183" s="3">
-        <v>72.02</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17">
-      <c r="B184" s="3"/>
-      <c r="C184" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D184" s="3">
-        <v>375</v>
-      </c>
-      <c r="E184" s="3">
-        <v>72.12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17">
-      <c r="B185" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="I185" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-    </row>
-    <row r="186" spans="1:17">
-      <c r="B186" s="3"/>
-      <c r="C186" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D186" s="3">
-        <v>1503443</v>
-      </c>
-      <c r="E186" s="3"/>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K186" s="3">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="187" spans="1:17">
-      <c r="B187" s="3"/>
-      <c r="C187" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K187" s="3"/>
-    </row>
-    <row r="207" spans="1:17">
-      <c r="B207" s="3"/>
-      <c r="C207" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="3"/>
-      <c r="K207" s="3"/>
-      <c r="L207" s="3"/>
-      <c r="M207" s="3"/>
-      <c r="N207" s="3"/>
-      <c r="O207" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="208" spans="1:17">
-      <c r="B208" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C208" s="3">
-        <v>143</v>
-      </c>
-      <c r="D208" s="3">
-        <v>213</v>
-      </c>
-      <c r="E208" s="3">
-        <v>226</v>
-      </c>
-      <c r="F208" s="3">
-        <v>51</v>
-      </c>
-      <c r="G208" s="3">
-        <v>1</v>
-      </c>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
-      <c r="K208" s="3"/>
-      <c r="L208" s="3"/>
-      <c r="M208" s="3"/>
-      <c r="N208" s="3"/>
-      <c r="O208" s="3">
+      <c r="C208">
+        <v>131</v>
+      </c>
+      <c r="D208">
+        <v>174</v>
+      </c>
+      <c r="E208">
+        <v>223</v>
+      </c>
+      <c r="F208">
+        <v>161</v>
+      </c>
+      <c r="G208">
+        <v>171</v>
+      </c>
+      <c r="H208">
+        <v>249</v>
+      </c>
+      <c r="I208">
+        <v>204</v>
+      </c>
+      <c r="J208">
+        <v>115</v>
+      </c>
+      <c r="K208">
+        <v>167</v>
+      </c>
+      <c r="L208">
+        <v>269</v>
+      </c>
+      <c r="M208">
+        <v>199</v>
+      </c>
+      <c r="N208">
+        <v>251</v>
+      </c>
+      <c r="O208">
         <f>SUM(C208:N208)</f>
-        <v>634</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="209" spans="1:17">
-      <c r="B209" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C209" s="3">
-        <v>73.2394</v>
-      </c>
-      <c r="D209" s="3">
-        <v>74.5665</v>
-      </c>
-      <c r="E209" s="3">
-        <v>69.0909</v>
-      </c>
-      <c r="F209" s="3">
-        <v>66.6667</v>
-      </c>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
-      <c r="K209" s="3"/>
-      <c r="L209" s="3"/>
-      <c r="M209" s="3"/>
-      <c r="N209" s="3"/>
-      <c r="O209" s="3">
+      <c r="B209" t="s">
+        <v>77</v>
+      </c>
+      <c r="C209">
+        <v>75.0</v>
+      </c>
+      <c r="D209">
+        <v>73.2919</v>
+      </c>
+      <c r="E209">
+        <v>71.3636</v>
+      </c>
+      <c r="F209">
+        <v>77.6923</v>
+      </c>
+      <c r="G209">
+        <v>82.2222</v>
+      </c>
+      <c r="H209">
+        <v>79.0476</v>
+      </c>
+      <c r="I209">
+        <v>69.7802</v>
+      </c>
+      <c r="J209">
+        <v>72.9412</v>
+      </c>
+      <c r="K209">
+        <v>76.0331</v>
+      </c>
+      <c r="L209">
+        <v>77.1552</v>
+      </c>
+      <c r="M209">
+        <v>70.6587</v>
+      </c>
+      <c r="N209">
+        <v>78.6458</v>
+      </c>
+      <c r="O209">
         <f>SUM(C209:N209) / 12</f>
-        <v>23.630291666667</v>
+        <v>75.319316666667</v>
       </c>
     </row>
   </sheetData>

--- a/public/nom_de_fichier.xlsx
+++ b/public/nom_de_fichier.xlsx
@@ -92,28 +92,28 @@
     <t>Délai</t>
   </si>
   <si>
-    <t>&gt; 3j / 8.33%</t>
-  </si>
-  <si>
-    <t>&gt; 3j / 58.33%</t>
-  </si>
-  <si>
-    <t>&gt; 7j / 41.67%</t>
-  </si>
-  <si>
-    <t>&gt; à 15j / 75.00%</t>
-  </si>
-  <si>
-    <t>&lt;= 3j / 91.67%</t>
-  </si>
-  <si>
-    <t>&lt;= 3j / 41.67%</t>
-  </si>
-  <si>
-    <t>&lt;= 7j / 58.33%</t>
-  </si>
-  <si>
-    <t>&lt;= 15j / 25.00%</t>
+    <t>&gt; 3j / 20.28%</t>
+  </si>
+  <si>
+    <t>&gt; 3j / 71.09%</t>
+  </si>
+  <si>
+    <t>&gt; 7j / 10.11%</t>
+  </si>
+  <si>
+    <t>&gt; à 15j / 24.78%</t>
+  </si>
+  <si>
+    <t>&lt;= 3j / 79.72%</t>
+  </si>
+  <si>
+    <t>&lt;= 3j / 28.91%</t>
+  </si>
+  <si>
+    <t>&lt;= 7j / 89.89%</t>
+  </si>
+  <si>
+    <t>&lt;= 15j / 75.22%</t>
   </si>
   <si>
     <t>Transmissions</t>
@@ -471,40 +471,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,40 +534,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,40 +597,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>160</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>170</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>93</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>141</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>230</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>206</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>151</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -660,40 +660,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -855,7 +855,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24119</c:v>
+                  <c:v>7014508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -864,6 +864,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$E$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
@@ -871,6 +882,12 @@
           <c:val>
             <c:numRef>
               <c:f>Worksheet!$E$146</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31561</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1068,7 +1085,7 @@
               <c:numCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,6 +1094,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$L$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
@@ -1084,6 +1112,12 @@
           <c:val>
             <c:numRef>
               <c:f>Worksheet!$L$146</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1279,31 +1313,31 @@
                   <c:v>Mars</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>Avril</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>Mai</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>Juin</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>Juillet</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>Août</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>Septembre</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>Octobre</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>Novembre</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>Décembre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1314,40 +1348,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,40 +1571,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3427042.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6560707.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15062208.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>17140160.68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>20053863.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>26269693.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>32591922.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>34953853.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38002</c:v>
+                  <c:v>41459928.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38002</c:v>
+                  <c:v>45792861</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38002</c:v>
+                  <c:v>49071173.51</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38002</c:v>
+                  <c:v>61969650.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1599,40 +1633,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3427042.87</c:v>
+                  <c:v>1321328.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6560707.63</c:v>
+                  <c:v>3408628.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15062208.99</c:v>
+                  <c:v>5913110.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17140160.68</c:v>
+                  <c:v>7607418.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20053863.04</c:v>
+                  <c:v>10888571.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26269693.94</c:v>
+                  <c:v>14512085.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32591922.51</c:v>
+                  <c:v>25615021.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34953853.13</c:v>
+                  <c:v>28223412.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41459928.74</c:v>
+                  <c:v>31072730.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45792861</c:v>
+                  <c:v>34100831.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49071173.51</c:v>
+                  <c:v>38781150.42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61969650.7</c:v>
+                  <c:v>42881828.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1769,10 +1803,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 3j / 91.67%</c:v>
+                  <c:v>&lt;= 3j / 79.72%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; 3j / 8.33%</c:v>
+                  <c:v>&gt; 3j / 20.28%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1783,10 +1817,10 @@
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>2658</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,10 +1917,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 3j / 41.67%</c:v>
+                  <c:v>&lt;= 3j / 28.91%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; 3j / 58.33%</c:v>
+                  <c:v>&gt; 3j / 71.09%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1897,10 +1931,10 @@
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>2370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1997,10 +2031,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 7j / 58.33%</c:v>
+                  <c:v>&lt;= 7j / 89.89%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; 7j / 41.67%</c:v>
+                  <c:v>&gt; 7j / 10.11%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2011,10 +2045,10 @@
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>2997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,10 +2145,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>&lt;= 15j / 25.00%</c:v>
+                  <c:v>&lt;= 15j / 75.22%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&gt; à 15j / 75.00%</c:v>
+                  <c:v>&gt; à 15j / 24.78%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2125,10 +2159,10 @@
               <c:numCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2256,10 +2290,10 @@
               <c:numCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2393,10 +2427,10 @@
               <c:numCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2524,10 +2558,10 @@
               <c:numCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>881</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3338,44 +3372,44 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0</v>
+        <v>134.0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0</v>
+        <v>160.0</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0</v>
+        <v>231.0</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0</v>
+        <v>125.0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0</v>
+        <v>151.0</v>
       </c>
       <c r="H4" s="3">
-        <v>0.0</v>
+        <v>212.0</v>
       </c>
       <c r="I4" s="3">
-        <v>0.0</v>
+        <v>170.0</v>
       </c>
       <c r="J4" s="3">
-        <v>0.0</v>
+        <v>93.0</v>
       </c>
       <c r="K4" s="3">
-        <v>0.0</v>
+        <v>141.0</v>
       </c>
       <c r="L4" s="3">
-        <v>0.0</v>
+        <v>230.0</v>
       </c>
       <c r="M4" s="3">
-        <v>0.0</v>
+        <v>206.0</v>
       </c>
       <c r="N4" s="3">
-        <v>0.0</v>
+        <v>151.0</v>
       </c>
       <c r="O4" s="2">
         <f>SUM(C4:N4)</f>
-        <v>0</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3383,44 +3417,44 @@
         <v>3</v>
       </c>
       <c r="C5" s="4">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
       <c r="D5" s="4">
-        <v>0.0</v>
+        <v>116.0</v>
       </c>
       <c r="E5" s="4">
-        <v>0.0</v>
+        <v>138.0</v>
       </c>
       <c r="F5" s="4">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
       <c r="G5" s="4">
-        <v>0.0</v>
+        <v>131.0</v>
       </c>
       <c r="H5" s="4">
-        <v>0.0</v>
+        <v>117.0</v>
       </c>
       <c r="I5" s="4">
-        <v>0.0</v>
+        <v>124.0</v>
       </c>
       <c r="J5" s="4">
-        <v>0.0</v>
+        <v>99.0</v>
       </c>
       <c r="K5" s="4">
-        <v>2.0</v>
+        <v>112.0</v>
       </c>
       <c r="L5" s="4">
-        <v>0.0</v>
+        <v>127.0</v>
       </c>
       <c r="M5" s="4">
-        <v>0.0</v>
+        <v>146.0</v>
       </c>
       <c r="N5" s="4">
-        <v>0.0</v>
+        <v>130.0</v>
       </c>
       <c r="O5" s="2">
         <f>SUM(C5:N5)</f>
-        <v>2</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3428,44 +3462,44 @@
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>0.0</v>
+        <v>237.0</v>
       </c>
       <c r="D6" s="5">
-        <v>0.0</v>
+        <v>276.0</v>
       </c>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>369.0</v>
       </c>
       <c r="F6" s="5">
-        <v>0.0</v>
+        <v>228.0</v>
       </c>
       <c r="G6" s="5">
-        <v>0.0</v>
+        <v>282.0</v>
       </c>
       <c r="H6" s="5">
-        <v>0.0</v>
+        <v>329.0</v>
       </c>
       <c r="I6" s="5">
-        <v>0.0</v>
+        <v>294.0</v>
       </c>
       <c r="J6" s="5">
-        <v>0.0</v>
+        <v>192.0</v>
       </c>
       <c r="K6" s="5">
-        <v>2.0</v>
+        <v>253.0</v>
       </c>
       <c r="L6" s="5">
-        <v>0.0</v>
+        <v>357.0</v>
       </c>
       <c r="M6" s="5">
-        <v>0.0</v>
+        <v>352.0</v>
       </c>
       <c r="N6" s="5">
-        <v>0.0</v>
+        <v>281.0</v>
       </c>
       <c r="O6" s="2">
         <f>SUM(C6:N6)</f>
-        <v>2</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3473,44 +3507,44 @@
         <v>20</v>
       </c>
       <c r="C7" s="6">
-        <v>134.0</v>
+        <v>120.0</v>
       </c>
       <c r="D7" s="6">
+        <v>138.0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>236.0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>205.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>227.0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>206.0</v>
+      </c>
+      <c r="I7" s="6">
         <v>160.0</v>
       </c>
-      <c r="E7" s="6">
-        <v>231.0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>125.0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>151.0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>212.0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>170.0</v>
-      </c>
       <c r="J7" s="6">
-        <v>93.0</v>
+        <v>99.0</v>
       </c>
       <c r="K7" s="6">
-        <v>141.0</v>
+        <v>159.0</v>
       </c>
       <c r="L7" s="6">
-        <v>230.0</v>
+        <v>215.0</v>
       </c>
       <c r="M7" s="6">
-        <v>206.0</v>
+        <v>208.0</v>
       </c>
       <c r="N7" s="6">
-        <v>151.0</v>
+        <v>210.0</v>
       </c>
       <c r="O7">
         <f>SUM(C7:N7)</f>
-        <v>2004</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3518,44 +3552,44 @@
         <v>21</v>
       </c>
       <c r="C8" s="7">
+        <v>107.0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>105.0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>152.0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>104.0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>192.0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>148.0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>102.0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>77.0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>174.0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>139.0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>134.0</v>
+      </c>
+      <c r="N8" s="7">
         <v>103.0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>116.0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>138.0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>103.0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>131.0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>117.0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>124.0</v>
-      </c>
-      <c r="J8" s="7">
-        <v>99.0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>112.0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>127.0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>146.0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>130.0</v>
       </c>
       <c r="O8">
         <f>SUM(C8:N8)</f>
-        <v>1446</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3563,44 +3597,44 @@
         <v>22</v>
       </c>
       <c r="C9" s="8">
-        <v>237.0</v>
+        <v>227.0</v>
       </c>
       <c r="D9" s="8">
-        <v>276.0</v>
+        <v>243.0</v>
       </c>
       <c r="E9" s="8">
-        <v>369.0</v>
+        <v>388.0</v>
       </c>
       <c r="F9" s="8">
-        <v>228.0</v>
+        <v>309.0</v>
       </c>
       <c r="G9" s="8">
-        <v>282.0</v>
+        <v>419.0</v>
       </c>
       <c r="H9" s="8">
-        <v>329.0</v>
+        <v>354.0</v>
       </c>
       <c r="I9" s="8">
-        <v>294.0</v>
+        <v>262.0</v>
       </c>
       <c r="J9" s="8">
-        <v>192.0</v>
+        <v>176.0</v>
       </c>
       <c r="K9" s="8">
-        <v>253.0</v>
+        <v>333.0</v>
       </c>
       <c r="L9" s="8">
-        <v>357.0</v>
+        <v>354.0</v>
       </c>
       <c r="M9" s="8">
-        <v>352.0</v>
+        <v>342.0</v>
       </c>
       <c r="N9" s="8">
-        <v>281.0</v>
+        <v>313.0</v>
       </c>
       <c r="O9">
         <f>SUM(C9:N9)</f>
-        <v>3450</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3652,44 +3686,44 @@
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>0.0</v>
+        <v>573434.82</v>
       </c>
       <c r="D12" s="3">
-        <v>0.0</v>
+        <v>745787.03</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0</v>
+        <v>1017141.82</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0</v>
+        <v>563515.61</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0</v>
+        <v>809312.02</v>
       </c>
       <c r="H12" s="3">
-        <v>0.0</v>
+        <v>804991.44</v>
       </c>
       <c r="I12" s="3">
-        <v>0.0</v>
+        <v>1430406.73</v>
       </c>
       <c r="J12" s="3">
-        <v>0.0</v>
+        <v>396459.44</v>
       </c>
       <c r="K12" s="3">
-        <v>0.0</v>
+        <v>729066.96</v>
       </c>
       <c r="L12" s="3">
-        <v>0.0</v>
+        <v>1531842.53</v>
       </c>
       <c r="M12" s="3">
-        <v>0.0</v>
+        <v>1089886.45</v>
       </c>
       <c r="N12" s="3">
-        <v>0.0</v>
+        <v>1029487.17</v>
       </c>
       <c r="O12" s="2">
         <f>SUM(C12:N12)</f>
-        <v>0</v>
+        <v>10721332.02</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3697,44 +3731,44 @@
         <v>3</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>2853608.05</v>
       </c>
       <c r="D13" s="4">
-        <v>0.0</v>
+        <v>2387877.73</v>
       </c>
       <c r="E13" s="4">
-        <v>0.0</v>
+        <v>7484359.54</v>
       </c>
       <c r="F13" s="4">
-        <v>0.0</v>
+        <v>1514436.08</v>
       </c>
       <c r="G13" s="4">
-        <v>0.0</v>
+        <v>2104390.34</v>
       </c>
       <c r="H13" s="4">
-        <v>0.0</v>
+        <v>5410839.46</v>
       </c>
       <c r="I13" s="4">
-        <v>0.0</v>
+        <v>4891821.84</v>
       </c>
       <c r="J13" s="4">
-        <v>0.0</v>
+        <v>1965471.18</v>
       </c>
       <c r="K13" s="4">
-        <v>38002.0</v>
+        <v>5777008.65</v>
       </c>
       <c r="L13" s="4">
-        <v>0.0</v>
+        <v>2801089.73</v>
       </c>
       <c r="M13" s="4">
-        <v>0.0</v>
+        <v>2188426.06</v>
       </c>
       <c r="N13" s="4">
-        <v>0.0</v>
+        <v>11868990.02</v>
       </c>
       <c r="O13" s="2">
         <f>SUM(C13:N13)</f>
-        <v>38002</v>
+        <v>51248318.68</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3742,44 +3776,44 @@
         <v>4</v>
       </c>
       <c r="C14" s="5">
-        <v>0.0</v>
+        <v>3427042.87</v>
       </c>
       <c r="D14" s="5">
-        <v>0.0</v>
+        <v>6560707.63</v>
       </c>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>15062208.99</v>
       </c>
       <c r="F14" s="5">
-        <v>0.0</v>
+        <v>17140160.68</v>
       </c>
       <c r="G14" s="5">
-        <v>0.0</v>
+        <v>20053863.04</v>
       </c>
       <c r="H14" s="5">
-        <v>0.0</v>
+        <v>26269693.94</v>
       </c>
       <c r="I14" s="5">
-        <v>0.0</v>
+        <v>32591922.51</v>
       </c>
       <c r="J14" s="5">
-        <v>0.0</v>
+        <v>34953853.13</v>
       </c>
       <c r="K14" s="5">
-        <v>38002.0</v>
+        <v>41459928.74</v>
       </c>
       <c r="L14" s="5">
-        <v>38002.0</v>
+        <v>45792861.0</v>
       </c>
       <c r="M14" s="5">
-        <v>38002.0</v>
+        <v>49071173.51</v>
       </c>
       <c r="N14" s="5">
-        <v>38002.0</v>
+        <v>61969650.7</v>
       </c>
       <c r="O14" s="2">
         <f>SUM(C14:N14)</f>
-        <v>152008</v>
+        <v>354353066.74</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3787,44 +3821,44 @@
         <v>20</v>
       </c>
       <c r="C15" s="6">
-        <v>573434.82</v>
+        <v>312452.75</v>
       </c>
       <c r="D15" s="6">
-        <v>745787.03</v>
+        <v>557343.77</v>
       </c>
       <c r="E15" s="6">
-        <v>1017141.82</v>
+        <v>982521.22</v>
       </c>
       <c r="F15" s="6">
-        <v>563515.61</v>
+        <v>842191.86</v>
       </c>
       <c r="G15" s="6">
-        <v>809312.02</v>
+        <v>729838.13</v>
       </c>
       <c r="H15" s="6">
-        <v>804991.44</v>
+        <v>1035253.76</v>
       </c>
       <c r="I15" s="6">
-        <v>1430406.73</v>
+        <v>726859.11</v>
       </c>
       <c r="J15" s="6">
-        <v>396459.44</v>
+        <v>452202.63</v>
       </c>
       <c r="K15" s="6">
-        <v>729066.96</v>
+        <v>618165.94</v>
       </c>
       <c r="L15" s="6">
-        <v>1531842.53</v>
+        <v>1062671.69</v>
       </c>
       <c r="M15" s="6">
-        <v>1089886.45</v>
+        <v>822340.52</v>
       </c>
       <c r="N15" s="6">
-        <v>1029487.17</v>
+        <v>1187753.03</v>
       </c>
       <c r="O15">
         <f>SUM(C15:N15)</f>
-        <v>10721332.02</v>
+        <v>9329594.41</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3832,44 +3866,44 @@
         <v>21</v>
       </c>
       <c r="C16" s="7">
-        <v>2853608.05</v>
+        <v>1008875.94</v>
       </c>
       <c r="D16" s="7">
-        <v>2387877.73</v>
+        <v>1529955.59</v>
       </c>
       <c r="E16" s="7">
-        <v>7484359.54</v>
+        <v>1521960.8</v>
       </c>
       <c r="F16" s="7">
-        <v>1514436.08</v>
+        <v>852116.53</v>
       </c>
       <c r="G16" s="7">
-        <v>2104390.34</v>
+        <v>2551315.12</v>
       </c>
       <c r="H16" s="7">
-        <v>5410839.46</v>
+        <v>2588259.65</v>
       </c>
       <c r="I16" s="7">
-        <v>4891821.84</v>
+        <v>10376077.28</v>
       </c>
       <c r="J16" s="7">
-        <v>1965471.18</v>
+        <v>2156187.92</v>
       </c>
       <c r="K16" s="7">
-        <v>5777008.65</v>
+        <v>2231152.02</v>
       </c>
       <c r="L16" s="7">
-        <v>2801089.73</v>
+        <v>1965429.61</v>
       </c>
       <c r="M16" s="7">
-        <v>2188426.06</v>
+        <v>3857978.58</v>
       </c>
       <c r="N16" s="7">
-        <v>11868990.02</v>
+        <v>2912924.86</v>
       </c>
       <c r="O16">
         <f>SUM(C16:N16)</f>
-        <v>51248318.68</v>
+        <v>33552233.9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3877,62 +3911,86 @@
         <v>22</v>
       </c>
       <c r="C17" s="8">
-        <v>3427042.87</v>
+        <v>1321328.69</v>
       </c>
       <c r="D17" s="8">
-        <v>6560707.63</v>
+        <v>3408628.05</v>
       </c>
       <c r="E17" s="8">
-        <v>15062208.99</v>
+        <v>5913110.07</v>
       </c>
       <c r="F17" s="8">
-        <v>17140160.68</v>
+        <v>7607418.46</v>
       </c>
       <c r="G17" s="8">
-        <v>20053863.04</v>
+        <v>10888571.71</v>
       </c>
       <c r="H17" s="8">
-        <v>26269693.94</v>
+        <v>14512085.12</v>
       </c>
       <c r="I17" s="8">
-        <v>32591922.51</v>
+        <v>25615021.51</v>
       </c>
       <c r="J17" s="8">
-        <v>34953853.13</v>
+        <v>28223412.06</v>
       </c>
       <c r="K17" s="8">
-        <v>41459928.74</v>
+        <v>31072730.02</v>
       </c>
       <c r="L17" s="8">
-        <v>45792861.0</v>
+        <v>34100831.32</v>
       </c>
       <c r="M17" s="8">
-        <v>49071173.51</v>
+        <v>38781150.42</v>
       </c>
       <c r="N17" s="8">
-        <v>61969650.7</v>
+        <v>42881828.31</v>
       </c>
       <c r="O17">
         <f>SUM(C17:N17)</f>
-        <v>354353066.74</v>
+        <v>244326115.74</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="O18" s="2" t="s">
         <v>17</v>
       </c>
@@ -3941,63 +3999,135 @@
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="C19" s="3">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3">
+        <v>82</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3">
+        <v>67</v>
+      </c>
+      <c r="H19" s="3">
+        <v>100</v>
+      </c>
+      <c r="I19" s="3">
+        <v>56</v>
+      </c>
+      <c r="J19" s="3">
+        <v>41</v>
+      </c>
+      <c r="K19" s="3">
+        <v>45</v>
+      </c>
+      <c r="L19" s="3">
+        <v>79</v>
+      </c>
+      <c r="M19" s="3">
+        <v>59</v>
+      </c>
+      <c r="N19" s="3">
+        <v>45</v>
+      </c>
       <c r="O19" s="2">
         <f>SUM(C19:N19)</f>
-        <v>0</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+      <c r="C20" s="4">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4">
+        <v>52</v>
+      </c>
+      <c r="E20" s="4">
+        <v>78</v>
+      </c>
+      <c r="F20" s="4">
+        <v>46</v>
+      </c>
+      <c r="G20" s="4">
+        <v>56</v>
+      </c>
+      <c r="H20" s="4">
+        <v>58</v>
+      </c>
+      <c r="I20" s="4">
+        <v>46</v>
+      </c>
+      <c r="J20" s="4">
+        <v>42</v>
+      </c>
+      <c r="K20" s="4">
+        <v>60</v>
+      </c>
+      <c r="L20" s="4">
+        <v>73</v>
+      </c>
+      <c r="M20" s="4">
+        <v>71</v>
+      </c>
+      <c r="N20" s="4">
+        <v>53</v>
+      </c>
       <c r="O20" s="2">
         <f>SUM(C20:N20)</f>
-        <v>0</v>
+        <v>681</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="C21" s="5">
+        <v>109</v>
+      </c>
+      <c r="D21" s="5">
+        <v>111</v>
+      </c>
+      <c r="E21" s="5">
+        <v>160</v>
+      </c>
+      <c r="F21" s="5">
+        <v>91</v>
+      </c>
+      <c r="G21" s="5">
+        <v>123</v>
+      </c>
+      <c r="H21" s="5">
+        <v>158</v>
+      </c>
+      <c r="I21" s="5">
+        <v>102</v>
+      </c>
+      <c r="J21" s="5">
+        <v>83</v>
+      </c>
+      <c r="K21" s="5">
+        <v>105</v>
+      </c>
+      <c r="L21" s="5">
+        <v>152</v>
+      </c>
+      <c r="M21" s="5">
+        <v>130</v>
+      </c>
+      <c r="N21" s="5">
+        <v>98</v>
+      </c>
       <c r="O21" s="2">
         <f>SUM(C21:N21)</f>
-        <v>0</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4005,44 +4135,44 @@
         <v>20</v>
       </c>
       <c r="C22" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="9">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E22" s="9">
+        <v>114</v>
+      </c>
+      <c r="F22" s="9">
+        <v>92</v>
+      </c>
+      <c r="G22" s="9">
+        <v>108</v>
+      </c>
+      <c r="H22" s="9">
+        <v>91</v>
+      </c>
+      <c r="I22" s="9">
+        <v>65</v>
+      </c>
+      <c r="J22" s="9">
+        <v>40</v>
+      </c>
+      <c r="K22" s="9">
+        <v>78</v>
+      </c>
+      <c r="L22" s="9">
         <v>82</v>
       </c>
-      <c r="F22" s="9">
-        <v>45</v>
-      </c>
-      <c r="G22" s="9">
-        <v>67</v>
-      </c>
-      <c r="H22" s="9">
-        <v>100</v>
-      </c>
-      <c r="I22" s="9">
-        <v>56</v>
-      </c>
-      <c r="J22" s="9">
-        <v>41</v>
-      </c>
-      <c r="K22" s="9">
-        <v>45</v>
-      </c>
-      <c r="L22" s="9">
-        <v>79</v>
-      </c>
       <c r="M22" s="9">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="N22" s="9">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="O22" s="2">
         <f>SUM(C22:N22)</f>
-        <v>741</v>
+        <v>976</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4050,44 +4180,44 @@
         <v>21</v>
       </c>
       <c r="C23" s="10">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D23" s="10">
+        <v>50</v>
+      </c>
+      <c r="E23" s="10">
+        <v>55</v>
+      </c>
+      <c r="F23" s="10">
+        <v>60</v>
+      </c>
+      <c r="G23" s="10">
+        <v>100</v>
+      </c>
+      <c r="H23" s="10">
+        <v>86</v>
+      </c>
+      <c r="I23" s="10">
         <v>52</v>
       </c>
-      <c r="E23" s="10">
-        <v>78</v>
-      </c>
-      <c r="F23" s="10">
-        <v>46</v>
-      </c>
-      <c r="G23" s="10">
-        <v>56</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="J23" s="10">
+        <v>37</v>
+      </c>
+      <c r="K23" s="10">
+        <v>107</v>
+      </c>
+      <c r="L23" s="10">
+        <v>75</v>
+      </c>
+      <c r="M23" s="10">
         <v>58</v>
       </c>
-      <c r="I23" s="10">
-        <v>46</v>
-      </c>
-      <c r="J23" s="10">
-        <v>42</v>
-      </c>
-      <c r="K23" s="10">
-        <v>60</v>
-      </c>
-      <c r="L23" s="10">
-        <v>73</v>
-      </c>
-      <c r="M23" s="10">
-        <v>71</v>
-      </c>
       <c r="N23" s="10">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O23" s="2">
         <f>SUM(C23:N23)</f>
-        <v>681</v>
+        <v>777</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4095,44 +4225,44 @@
         <v>22</v>
       </c>
       <c r="C24" s="11">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D24" s="11">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="E24" s="11">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F24" s="11">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="G24" s="11">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="H24" s="11">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="I24" s="11">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="J24" s="11">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K24" s="11">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="L24" s="11">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M24" s="11">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="N24" s="11">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="O24" s="2">
         <f>SUM(C24:N24)</f>
-        <v>1422</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4333,43 +4463,43 @@
         <v>33</v>
       </c>
       <c r="C69" s="13">
-        <v>2.6</v>
+        <v>3.54</v>
       </c>
       <c r="D69" s="13">
-        <v>1.0</v>
+        <v>4.76</v>
       </c>
       <c r="E69" s="13">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="F69" s="13">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="G69" s="13">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H69" s="13">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="I69" s="13">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="J69" s="13">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="K69" s="13">
-        <v>0.0</v>
+        <v>1.42</v>
       </c>
       <c r="L69" s="13">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M69" s="13">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="N69" s="13">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="O69" s="13">
-        <v>0.3</v>
+        <v>3.0658333333333</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4377,43 +4507,43 @@
         <v>34</v>
       </c>
       <c r="C70" s="13">
-        <v>18.0</v>
+        <v>7.74</v>
       </c>
       <c r="D70" s="13">
-        <v>54.0</v>
+        <v>6.87</v>
       </c>
       <c r="E70" s="13">
-        <v>0</v>
+        <v>8.16</v>
       </c>
       <c r="F70" s="13">
-        <v>0</v>
+        <v>7.88</v>
       </c>
       <c r="G70" s="13">
-        <v>0</v>
+        <v>12.37</v>
       </c>
       <c r="H70" s="13">
-        <v>0</v>
+        <v>7.21</v>
       </c>
       <c r="I70" s="13">
-        <v>0</v>
+        <v>6.36</v>
       </c>
       <c r="J70" s="13">
-        <v>0</v>
+        <v>7.07</v>
       </c>
       <c r="K70" s="13">
-        <v>0.0</v>
+        <v>5.38</v>
       </c>
       <c r="L70" s="13">
-        <v>0</v>
+        <v>5.63</v>
       </c>
       <c r="M70" s="13">
-        <v>0</v>
+        <v>5.83</v>
       </c>
       <c r="N70" s="13">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="O70" s="13">
-        <v>6.0</v>
+        <v>7.3083333333333</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4421,43 +4551,43 @@
         <v>35</v>
       </c>
       <c r="C71" s="13">
-        <v>18.6</v>
+        <v>2.02</v>
       </c>
       <c r="D71" s="13">
-        <v>0.0</v>
+        <v>2.92</v>
       </c>
       <c r="E71" s="13">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="F71" s="13">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="G71" s="13">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="H71" s="13">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="I71" s="13">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="J71" s="13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K71" s="13">
-        <v>0.0</v>
+        <v>1.66</v>
       </c>
       <c r="L71" s="13">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="M71" s="13">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N71" s="13">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="O71" s="13">
-        <v>1.55</v>
+        <v>1.545</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4465,43 +4595,43 @@
         <v>36</v>
       </c>
       <c r="C72" s="13">
-        <v>39.2</v>
+        <v>13.3</v>
       </c>
       <c r="D72" s="13">
-        <v>55.0</v>
+        <v>14.55</v>
       </c>
       <c r="E72" s="13">
-        <v>0.0</v>
+        <v>14.99</v>
       </c>
       <c r="F72" s="13">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="G72" s="13">
-        <v>0.0</v>
+        <v>19.45</v>
       </c>
       <c r="H72" s="13">
-        <v>0.0</v>
+        <v>12.76</v>
       </c>
       <c r="I72" s="13">
-        <v>0.0</v>
+        <v>10.85</v>
       </c>
       <c r="J72" s="13">
-        <v>0.0</v>
+        <v>8.61</v>
       </c>
       <c r="K72" s="13">
-        <v>0.0</v>
+        <v>8.46</v>
       </c>
       <c r="L72" s="13">
-        <v>0.0</v>
+        <v>8.05</v>
       </c>
       <c r="M72" s="13">
-        <v>0.0</v>
+        <v>9.05</v>
       </c>
       <c r="N72" s="13">
-        <v>0.0</v>
+        <v>10.96</v>
       </c>
       <c r="O72" s="13">
-        <v>7.85</v>
+        <v>11.919166666667</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4529,28 +4659,28 @@
         <v>37</v>
       </c>
       <c r="B76" s="14">
-        <v>11</v>
+        <v>2658</v>
       </c>
       <c r="C76" s="15">
-        <v>1</v>
+        <v>676</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H76" s="14">
-        <v>5</v>
+        <v>964</v>
       </c>
       <c r="I76" s="15">
-        <v>7</v>
+        <v>2370</v>
       </c>
       <c r="M76" s="13" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="14">
-        <v>7</v>
+        <v>2997</v>
       </c>
       <c r="O76" s="15">
-        <v>5</v>
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -4572,10 +4702,10 @@
         <v>39</v>
       </c>
       <c r="B93" s="14">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="C93" s="15">
-        <v>9</v>
+        <v>826</v>
       </c>
     </row>
     <row r="111" spans="1:17">
@@ -4599,10 +4729,10 @@
         <v>44</v>
       </c>
       <c r="D114">
-        <v>184428.99</v>
+        <v>50084826.22</v>
       </c>
       <c r="E114">
-        <v>209650.01</v>
+        <v>60316191.86</v>
       </c>
     </row>
     <row r="115" spans="1:17">
@@ -4610,13 +4740,13 @@
         <v>45</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>1929</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>1405</v>
       </c>
       <c r="E115">
-        <v>12</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="116" spans="1:17">
@@ -4624,13 +4754,13 @@
         <v>46</v>
       </c>
       <c r="C116">
-        <v>4203.5</v>
+        <v>5303.97</v>
       </c>
       <c r="D116">
-        <v>30738.17</v>
+        <v>35647.56</v>
       </c>
       <c r="E116">
-        <v>34941.67</v>
+        <v>40951.53</v>
       </c>
     </row>
     <row r="117" spans="1:17">
@@ -4638,10 +4768,10 @@
         <v>47</v>
       </c>
       <c r="C117">
-        <v>12.03</v>
+        <v>16.96</v>
       </c>
       <c r="D117">
-        <v>87.97</v>
+        <v>83.04</v>
       </c>
     </row>
     <row r="118" spans="1:17">
@@ -4649,10 +4779,10 @@
         <v>48</v>
       </c>
       <c r="C118">
-        <v>50.0</v>
+        <v>57.86</v>
       </c>
       <c r="D118">
-        <v>50.0</v>
+        <v>42.14</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -4706,10 +4836,10 @@
     </row>
     <row r="123" spans="1:17">
       <c r="B123">
-        <v>2</v>
+        <v>693</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>616</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -4718,10 +4848,10 @@
         <v>0</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>644</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -4730,10 +4860,10 @@
         <v>0</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>1337</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>881</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -4763,10 +4893,10 @@
         <v>44</v>
       </c>
       <c r="D143">
-        <v>24119.2</v>
+        <v>7046068.58</v>
       </c>
       <c r="E143">
-        <v>95.63</v>
+        <v>68.87</v>
       </c>
     </row>
     <row r="144" spans="1:17">
@@ -4774,10 +4904,10 @@
         <v>45</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>1466</v>
       </c>
       <c r="E144">
-        <v>83.33</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="145" spans="1:17">
@@ -4793,13 +4923,19 @@
         <v>44</v>
       </c>
       <c r="D146">
-        <v>24119</v>
+        <v>7014508</v>
+      </c>
+      <c r="E146">
+        <v>31561</v>
       </c>
       <c r="J146" t="s">
         <v>63</v>
       </c>
       <c r="K146">
-        <v>5</v>
+        <v>1459</v>
+      </c>
+      <c r="L146">
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:17">
@@ -4807,10 +4943,16 @@
         <v>61</v>
       </c>
       <c r="D147"/>
+      <c r="E147">
+        <v>35</v>
+      </c>
       <c r="J147" t="s">
         <v>61</v>
       </c>
       <c r="K147"/>
+      <c r="L147">
+        <v>35</v>
+      </c>
     </row>
     <row r="151" spans="1:17">
       <c r="B151" s="2"/>
@@ -4900,6 +5042,33 @@
       <c r="E167" t="s">
         <v>7</v>
       </c>
+      <c r="F167" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" t="s">
+        <v>9</v>
+      </c>
+      <c r="H167" t="s">
+        <v>10</v>
+      </c>
+      <c r="I167" t="s">
+        <v>11</v>
+      </c>
+      <c r="J167" t="s">
+        <v>12</v>
+      </c>
+      <c r="K167" t="s">
+        <v>13</v>
+      </c>
+      <c r="L167" t="s">
+        <v>14</v>
+      </c>
+      <c r="M167" t="s">
+        <v>15</v>
+      </c>
+      <c r="N167" t="s">
+        <v>16</v>
+      </c>
       <c r="O167" t="s">
         <v>17</v>
       </c>
@@ -4909,17 +5078,44 @@
         <v>64</v>
       </c>
       <c r="C168">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="F168">
+        <v>161</v>
+      </c>
+      <c r="G168">
+        <v>171</v>
+      </c>
+      <c r="H168">
+        <v>249</v>
+      </c>
+      <c r="I168">
+        <v>204</v>
+      </c>
+      <c r="J168">
+        <v>115</v>
+      </c>
+      <c r="K168">
+        <v>167</v>
+      </c>
+      <c r="L168">
+        <v>269</v>
+      </c>
+      <c r="M168">
+        <v>199</v>
+      </c>
+      <c r="N168">
+        <v>251</v>
       </c>
       <c r="O168">
         <f>SUM(C168:N168)</f>
-        <v>11</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="169" spans="1:17">
@@ -4927,13 +5123,44 @@
         <v>65</v>
       </c>
       <c r="C169">
-        <v>83.3333</v>
-      </c>
-      <c r="D169"/>
-      <c r="E169"/>
+        <v>75.0</v>
+      </c>
+      <c r="D169">
+        <v>73.2919</v>
+      </c>
+      <c r="E169">
+        <v>71.3636</v>
+      </c>
+      <c r="F169">
+        <v>77.6923</v>
+      </c>
+      <c r="G169">
+        <v>82.2222</v>
+      </c>
+      <c r="H169">
+        <v>79.0476</v>
+      </c>
+      <c r="I169">
+        <v>69.7802</v>
+      </c>
+      <c r="J169">
+        <v>72.9412</v>
+      </c>
+      <c r="K169">
+        <v>76.0331</v>
+      </c>
+      <c r="L169">
+        <v>77.1552</v>
+      </c>
+      <c r="M169">
+        <v>70.6587</v>
+      </c>
+      <c r="N169">
+        <v>78.6458</v>
+      </c>
       <c r="O169">
         <f>SUM(C169:N169) / 12</f>
-        <v>6.9444416666667</v>
+        <v>75.319316666667</v>
       </c>
     </row>
     <row r="180" spans="1:17">

--- a/public/nom_de_fichier.xlsx
+++ b/public/nom_de_fichier.xlsx
@@ -86,6 +86,78 @@
     <t>TOTAL (Année Précédente)</t>
   </si>
   <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>MOYENNE</t>
+  </si>
+  <si>
+    <t>% VALEUR</t>
+  </si>
+  <si>
+    <t>% VOLUME</t>
+  </si>
+  <si>
+    <t>MPPA</t>
+  </si>
+  <si>
+    <t>MABC</t>
+  </si>
+  <si>
+    <t>TOTAUX</t>
+  </si>
+  <si>
+    <t>X &lt;= 1500</t>
+  </si>
+  <si>
+    <t>Montant des MPPA</t>
+  </si>
+  <si>
+    <t>1500 &lt; X &lt;=4000</t>
+  </si>
+  <si>
+    <t>4000 &lt; X &lt;=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X &gt; </t>
+  </si>
+  <si>
+    <t>Montant des MABC</t>
+  </si>
+  <si>
+    <t>Montant des MABC + MPPA</t>
+  </si>
+  <si>
+    <t>MPPA PME</t>
+  </si>
+  <si>
+    <t>TOP PME VALEUR</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>DEPARTEMENT</t>
+  </si>
+  <si>
+    <t>% PME</t>
+  </si>
+  <si>
+    <t>TOP PME VOLUME</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>NB MPPA PME</t>
+  </si>
+  <si>
+    <t>% MPPA</t>
+  </si>
+  <si>
     <t>Délai d'activité annuelle</t>
   </si>
   <si>
@@ -140,79 +212,7 @@
     <t>Activités par type de marché</t>
   </si>
   <si>
-    <t>MPPA</t>
-  </si>
-  <si>
-    <t>MABC</t>
-  </si>
-  <si>
-    <t>TOTAUX</t>
-  </si>
-  <si>
-    <t>VALEUR</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>MOYENNE</t>
-  </si>
-  <si>
-    <t>% VALEUR</t>
-  </si>
-  <si>
-    <t>% VOLUME</t>
-  </si>
-  <si>
-    <t>Montant des MPPA</t>
-  </si>
-  <si>
-    <t>X &lt;= 1500</t>
-  </si>
-  <si>
-    <t>1500 &lt; X &lt;=4000</t>
-  </si>
-  <si>
-    <t>4000 &lt; X &lt;=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X &gt; </t>
-  </si>
-  <si>
-    <t>Montant des MABC</t>
-  </si>
-  <si>
-    <t>Montant des MABC + MPPA</t>
-  </si>
-  <si>
     <t>Activités des PME</t>
-  </si>
-  <si>
-    <t>MPPA PME</t>
-  </si>
-  <si>
-    <t>PME</t>
-  </si>
-  <si>
-    <t>% PME</t>
-  </si>
-  <si>
-    <t>TOP PME VALEUR</t>
-  </si>
-  <si>
-    <t>DEPARTEMENT</t>
-  </si>
-  <si>
-    <t>TOP PME VOLUME</t>
-  </si>
-  <si>
-    <t>VOLUME</t>
-  </si>
-  <si>
-    <t>NB MPPA PME</t>
-  </si>
-  <si>
-    <t>% MPPA</t>
   </si>
 </sst>
 </file>
@@ -1124,6 +1124,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$M$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
@@ -1131,12 +1142,29 @@
           <c:val>
             <c:numRef>
               <c:f>Worksheet!$M$146</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$N$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
@@ -1144,12 +1172,29 @@
           <c:val>
             <c:numRef>
               <c:f>Worksheet!$N$146</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Worksheet!$O$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln/>
           </c:spPr>
@@ -1157,6 +1202,12 @@
           <c:val>
             <c:numRef>
               <c:f>Worksheet!$O$146</c:f>
+              <c:numCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -4027,7 +4078,7 @@
         <v>45</v>
       </c>
       <c r="L19" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M19" s="3">
         <v>59</v>
@@ -4037,7 +4088,7 @@
       </c>
       <c r="O19" s="2">
         <f>SUM(C19:N19)</f>
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4117,7 +4168,7 @@
         <v>105</v>
       </c>
       <c r="L21" s="5">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M21" s="5">
         <v>130</v>
@@ -4127,7 +4178,7 @@
       </c>
       <c r="O21" s="2">
         <f>SUM(C21:N21)</f>
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4411,12 +4462,12 @@
     </row>
     <row r="67" spans="1:17">
       <c r="H67" s="12" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="B68" s="13" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>5</v>
@@ -4460,7 +4511,7 @@
     </row>
     <row r="69" spans="1:17">
       <c r="B69" s="13" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C69" s="13">
         <v>3.54</v>
@@ -4504,7 +4555,7 @@
     </row>
     <row r="70" spans="1:17">
       <c r="B70" s="13" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C70" s="13">
         <v>7.74</v>
@@ -4548,7 +4599,7 @@
     </row>
     <row r="71" spans="1:17">
       <c r="B71" s="13" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C71" s="13">
         <v>2.02</v>
@@ -4592,7 +4643,7 @@
     </row>
     <row r="72" spans="1:17">
       <c r="B72" s="13" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C72" s="13">
         <v>13.3</v>
@@ -4636,27 +4687,27 @@
     </row>
     <row r="75" spans="1:17">
       <c r="B75" s="14" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I75" s="15" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="N75" s="14" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="O75" s="15" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="13" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B76" s="14">
         <v>2658</v>
@@ -4665,7 +4716,7 @@
         <v>676</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="H76" s="14">
         <v>964</v>
@@ -4674,7 +4725,7 @@
         <v>2370</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N76" s="14">
         <v>2997</v>
@@ -4689,17 +4740,17 @@
     </row>
     <row r="92" spans="1:17">
       <c r="B92" s="14" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="N92" s="13"/>
       <c r="O92" s="13"/>
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="13" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B93" s="14">
         <v>2508</v>
@@ -4710,249 +4761,284 @@
     </row>
     <row r="111" spans="1:17">
       <c r="H111" s="12" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:17">
-      <c r="C113" t="s">
-        <v>41</v>
-      </c>
-      <c r="D113" t="s">
-        <v>42</v>
-      </c>
-      <c r="E113" t="s">
-        <v>43</v>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:17">
-      <c r="B114" t="s">
-        <v>44</v>
-      </c>
-      <c r="D114">
+      <c r="B114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2">
         <v>50084826.22</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="2">
         <v>60316191.86</v>
       </c>
     </row>
     <row r="115" spans="1:17">
-      <c r="B115" t="s">
-        <v>45</v>
-      </c>
-      <c r="C115">
+      <c r="B115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="2">
         <v>1929</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="2">
         <v>1405</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <v>3334</v>
       </c>
     </row>
     <row r="116" spans="1:17">
-      <c r="B116" t="s">
-        <v>46</v>
-      </c>
-      <c r="C116">
+      <c r="B116" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" s="2">
         <v>5303.97</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="2">
         <v>35647.56</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2">
         <v>40951.53</v>
       </c>
     </row>
     <row r="117" spans="1:17">
-      <c r="B117" t="s">
-        <v>47</v>
-      </c>
-      <c r="C117">
+      <c r="B117" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" s="2">
         <v>16.96</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="2">
         <v>83.04</v>
       </c>
+      <c r="E117" s="2"/>
     </row>
     <row r="118" spans="1:17">
-      <c r="B118" t="s">
-        <v>48</v>
-      </c>
-      <c r="C118">
+      <c r="B118" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="2">
         <v>57.86</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="2">
         <v>42.14</v>
       </c>
+      <c r="E118" s="2"/>
     </row>
     <row r="121" spans="1:17">
-      <c r="C121" t="s">
-        <v>49</v>
-      </c>
-      <c r="H121" t="s">
-        <v>54</v>
-      </c>
-      <c r="M121" t="s">
-        <v>55</v>
-      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
     </row>
     <row r="122" spans="1:17">
-      <c r="B122" t="s">
-        <v>50</v>
-      </c>
-      <c r="C122" t="s">
-        <v>51</v>
-      </c>
-      <c r="D122" t="s">
-        <v>52</v>
-      </c>
-      <c r="E122" t="s">
-        <v>53</v>
-      </c>
-      <c r="G122" t="s">
-        <v>50</v>
-      </c>
-      <c r="H122" t="s">
-        <v>51</v>
-      </c>
-      <c r="I122" t="s">
-        <v>52</v>
-      </c>
-      <c r="J122" t="s">
-        <v>53</v>
-      </c>
-      <c r="L122" t="s">
-        <v>50</v>
-      </c>
-      <c r="M122" t="s">
-        <v>51</v>
-      </c>
-      <c r="N122" t="s">
-        <v>52</v>
-      </c>
-      <c r="O122" t="s">
-        <v>53</v>
+      <c r="B122" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:17">
-      <c r="B123">
+      <c r="B123" s="2">
         <v>693</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
         <v>616</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="2">
         <v>0</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="2">
         <v>0</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="2">
         <v>644</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="2">
         <v>265</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="2">
         <v>0</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="2">
         <v>0</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="2">
         <v>1337</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="2">
         <v>881</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="2">
         <v>0</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:17">
       <c r="H141" s="12" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:17">
-      <c r="B142" t="s">
-        <v>57</v>
-      </c>
-      <c r="D142" t="s">
-        <v>58</v>
-      </c>
-      <c r="E142" t="s">
-        <v>59</v>
+      <c r="B142" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:17">
-      <c r="C143" t="s">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" s="2">
+        <v>7046068.58</v>
+      </c>
+      <c r="E143" s="2">
+        <v>68.87</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1466</v>
+      </c>
+      <c r="E144" s="2">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="B145" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="I145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" s="2">
+        <v>7014508</v>
+      </c>
+      <c r="E146" s="2">
+        <v>31561</v>
+      </c>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D143">
-        <v>7046068.58</v>
-      </c>
-      <c r="E143">
-        <v>68.87</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17">
-      <c r="C144" t="s">
-        <v>45</v>
-      </c>
-      <c r="D144">
-        <v>1466</v>
-      </c>
-      <c r="E144">
-        <v>76.0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17">
-      <c r="B145" t="s">
-        <v>60</v>
-      </c>
-      <c r="I145" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17">
-      <c r="C146" t="s">
-        <v>44</v>
-      </c>
-      <c r="D146">
-        <v>7014508</v>
-      </c>
-      <c r="E146">
-        <v>31561</v>
-      </c>
-      <c r="J146" t="s">
-        <v>63</v>
-      </c>
-      <c r="K146">
+      <c r="K146" s="2">
         <v>1459</v>
       </c>
-      <c r="L146">
+      <c r="L146" s="2">
         <v>7</v>
       </c>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
     </row>
     <row r="147" spans="1:17">
-      <c r="C147" t="s">
-        <v>61</v>
-      </c>
-      <c r="D147"/>
-      <c r="E147">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2">
         <v>35</v>
       </c>
-      <c r="J147" t="s">
-        <v>61</v>
-      </c>
-      <c r="K147"/>
-      <c r="L147">
+      <c r="I147" s="2"/>
+      <c r="J147" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2">
         <v>35</v>
       </c>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
     </row>
     <row r="151" spans="1:17">
       <c r="B151" s="2"/>
@@ -5033,180 +5119,136 @@
       <c r="O161" s="2"/>
     </row>
     <row r="167" spans="1:17">
-      <c r="C167" t="s">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H167" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I167" t="s">
+      <c r="I167" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J167" t="s">
+      <c r="J167" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K167" t="s">
+      <c r="K167" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L167" t="s">
+      <c r="L167" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N167" t="s">
+      <c r="N167" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O167" t="s">
+      <c r="O167" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:17">
-      <c r="B168" t="s">
-        <v>64</v>
-      </c>
-      <c r="C168">
+      <c r="B168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C168" s="2">
         <v>131</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="2">
         <v>174</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="2">
         <v>223</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="2">
         <v>161</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="2">
         <v>171</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="2">
         <v>249</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="2">
         <v>204</v>
       </c>
-      <c r="J168">
+      <c r="J168" s="2">
         <v>115</v>
       </c>
-      <c r="K168">
+      <c r="K168" s="2">
         <v>167</v>
       </c>
-      <c r="L168">
+      <c r="L168" s="2">
         <v>269</v>
       </c>
-      <c r="M168">
+      <c r="M168" s="2">
         <v>199</v>
       </c>
-      <c r="N168">
+      <c r="N168" s="2">
         <v>251</v>
       </c>
-      <c r="O168">
+      <c r="O168" s="2">
         <f>SUM(C168:N168)</f>
         <v>2314</v>
       </c>
     </row>
     <row r="169" spans="1:17">
-      <c r="B169" t="s">
-        <v>65</v>
-      </c>
-      <c r="C169">
+      <c r="B169" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C169" s="2">
         <v>75.0</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="2">
         <v>73.2919</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="2">
         <v>71.3636</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="2">
         <v>77.6923</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="2">
         <v>82.2222</v>
       </c>
-      <c r="H169">
+      <c r="H169" s="2">
         <v>79.0476</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="2">
         <v>69.7802</v>
       </c>
-      <c r="J169">
+      <c r="J169" s="2">
         <v>72.9412</v>
       </c>
-      <c r="K169">
+      <c r="K169" s="2">
         <v>76.0331</v>
       </c>
-      <c r="L169">
-        <v>77.1552</v>
-      </c>
-      <c r="M169">
+      <c r="L169" s="2">
+        <v>77.4892</v>
+      </c>
+      <c r="M169" s="2">
         <v>70.6587</v>
       </c>
-      <c r="N169">
+      <c r="N169" s="2">
         <v>78.6458</v>
       </c>
-      <c r="O169">
+      <c r="O169" s="2">
         <f>SUM(C169:N169) / 12</f>
-        <v>75.319316666667</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17">
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-    </row>
-    <row r="181" spans="1:17">
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-    </row>
-    <row r="182" spans="1:17">
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-    </row>
-    <row r="183" spans="1:17">
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
-      <c r="I183" s="2"/>
-      <c r="J183" s="2"/>
-      <c r="K183" s="2"/>
-    </row>
-    <row r="184" spans="1:17">
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
-      <c r="I184" s="2"/>
-      <c r="J184" s="2"/>
-      <c r="K184" s="2"/>
-    </row>
-    <row r="185" spans="1:17">
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
+        <v>75.34715</v>
+      </c>
     </row>
     <row r="205" spans="1:17">
       <c r="B205" s="2"/>
